--- a/elec_gen.xlsx
+++ b/elec_gen.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,6 +393,11 @@
           <t>value</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -402,7 +407,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -421,10 +426,13 @@
         </is>
       </c>
       <c r="F2">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="G2">
-        <v>0.000187109</v>
+        <v>0.0006270020057</v>
+      </c>
+      <c r="H2">
+        <v>0.1237425971757967</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +443,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -454,10 +462,13 @@
         </is>
       </c>
       <c r="F3">
-        <v>2010</v>
+        <v>2025</v>
       </c>
       <c r="G3">
-        <v>1.57419e-006</v>
+        <v>0.01554267013591</v>
+      </c>
+      <c r="H3">
+        <v>1.499330512210301</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +479,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -487,10 +498,13 @@
         </is>
       </c>
       <c r="F4">
-        <v>2015</v>
+        <v>2030</v>
       </c>
       <c r="G4">
-        <v>0.0004392884508</v>
+        <v>0.01521260577862</v>
+      </c>
+      <c r="H4">
+        <v>1.001435095963302</v>
       </c>
     </row>
     <row r="5">
@@ -501,7 +515,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -520,10 +534,13 @@
         </is>
       </c>
       <c r="F5">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="G5">
-        <v>0.0006270020057</v>
+        <v>0.013393409241967</v>
+      </c>
+      <c r="H5">
+        <v>0.6237030745583184</v>
       </c>
     </row>
     <row r="6">
@@ -534,7 +551,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -553,10 +570,13 @@
         </is>
       </c>
       <c r="F6">
-        <v>2025</v>
+        <v>2040</v>
       </c>
       <c r="G6">
-        <v>0.01566678031818</v>
+        <v>0.012576103787453</v>
+      </c>
+      <c r="H6">
+        <v>0.4606239614030691</v>
       </c>
     </row>
     <row r="7">
@@ -567,7 +587,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -586,10 +606,13 @@
         </is>
       </c>
       <c r="F7">
-        <v>2030</v>
+        <v>2045</v>
       </c>
       <c r="G7">
-        <v>0.01361569325417</v>
+        <v>0.014695353590786</v>
+      </c>
+      <c r="H7">
+        <v>0.4413990876531553</v>
       </c>
     </row>
     <row r="8">
@@ -600,7 +623,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -619,10 +642,13 @@
         </is>
       </c>
       <c r="F8">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="G8">
-        <v>0.013339395955304</v>
+        <v>0.016748906028982</v>
+      </c>
+      <c r="H8">
+        <v>0.4369419324112752</v>
       </c>
     </row>
     <row r="9">
@@ -633,7 +659,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -652,10 +678,13 @@
         </is>
       </c>
       <c r="F9">
-        <v>2040</v>
+        <v>2055</v>
       </c>
       <c r="G9">
-        <v>0.012358792820302</v>
+        <v>0.0207175243</v>
+      </c>
+      <c r="H9">
+        <v>0.4924321374317089</v>
       </c>
     </row>
     <row r="10">
@@ -666,7 +695,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -685,10 +714,13 @@
         </is>
       </c>
       <c r="F10">
-        <v>2045</v>
+        <v>2060</v>
       </c>
       <c r="G10">
-        <v>0.014457874100738</v>
+        <v>0.02184171796</v>
+      </c>
+      <c r="H10">
+        <v>0.5099449224734481</v>
       </c>
     </row>
     <row r="11">
@@ -699,7 +731,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -718,10 +750,13 @@
         </is>
       </c>
       <c r="F11">
-        <v>2050</v>
+        <v>2065</v>
       </c>
       <c r="G11">
-        <v>0.016993713412975</v>
+        <v>0.0221869451</v>
+      </c>
+      <c r="H11">
+        <v>0.5104688451478595</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +767,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -751,10 +786,13 @@
         </is>
       </c>
       <c r="F12">
-        <v>2055</v>
+        <v>2070</v>
       </c>
       <c r="G12">
-        <v>0.02081500352</v>
+        <v>0.0166009838</v>
+      </c>
+      <c r="H12">
+        <v>0.3918247788755747</v>
       </c>
     </row>
     <row r="13">
@@ -765,7 +803,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -775,7 +813,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>coal</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -784,10 +822,13 @@
         </is>
       </c>
       <c r="F13">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="G13">
-        <v>0.0222383056</v>
+        <v>0.284895765</v>
+      </c>
+      <c r="H13">
+        <v>56.22588375315853</v>
       </c>
     </row>
     <row r="14">
@@ -798,7 +839,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -808,7 +849,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>coal</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -817,10 +858,13 @@
         </is>
       </c>
       <c r="F14">
-        <v>2065</v>
+        <v>2025</v>
       </c>
       <c r="G14">
-        <v>0.0220070635</v>
+        <v>0.324065163</v>
+      </c>
+      <c r="H14">
+        <v>31.26108851192299</v>
       </c>
     </row>
     <row r="15">
@@ -831,7 +875,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -841,7 +885,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>coal</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -850,10 +894,13 @@
         </is>
       </c>
       <c r="F15">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="G15">
-        <v>0.0233187601</v>
+        <v>0.40261637</v>
+      </c>
+      <c r="H15">
+        <v>26.50395132791784</v>
       </c>
     </row>
     <row r="16">
@@ -864,7 +911,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -883,10 +930,13 @@
         </is>
       </c>
       <c r="F16">
-        <v>1975</v>
+        <v>2035</v>
       </c>
       <c r="G16">
-        <v>0.00704567</v>
+        <v>0.459243911</v>
+      </c>
+      <c r="H16">
+        <v>21.38602906012752</v>
       </c>
     </row>
     <row r="17">
@@ -897,7 +947,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -916,10 +966,13 @@
         </is>
       </c>
       <c r="F17">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="G17">
-        <v>0.0409617</v>
+        <v>0.509810272</v>
+      </c>
+      <c r="H17">
+        <v>18.67278061802444</v>
       </c>
     </row>
     <row r="18">
@@ -930,7 +983,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -949,10 +1002,13 @@
         </is>
       </c>
       <c r="F18">
-        <v>2005</v>
+        <v>2045</v>
       </c>
       <c r="G18">
-        <v>0.100899</v>
+        <v>0.570881032</v>
+      </c>
+      <c r="H18">
+        <v>17.14734967937671</v>
       </c>
     </row>
     <row r="19">
@@ -963,7 +1019,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -982,10 +1038,13 @@
         </is>
       </c>
       <c r="F19">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="G19">
-        <v>0.160499</v>
+        <v>0.644359542</v>
+      </c>
+      <c r="H19">
+        <v>16.80991600059964</v>
       </c>
     </row>
     <row r="20">
@@ -996,7 +1055,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1015,10 +1074,13 @@
         </is>
       </c>
       <c r="F20">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="G20">
-        <v>0.294818</v>
+        <v>0.722932834</v>
+      </c>
+      <c r="H20">
+        <v>17.18329639734912</v>
       </c>
     </row>
     <row r="21">
@@ -1029,7 +1091,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1048,10 +1110,13 @@
         </is>
       </c>
       <c r="F21">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="G21">
-        <v>0.284895765</v>
+        <v>0.681213761</v>
+      </c>
+      <c r="H21">
+        <v>15.90449520395652</v>
       </c>
     </row>
     <row r="22">
@@ -1062,7 +1127,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1081,10 +1146,13 @@
         </is>
       </c>
       <c r="F22">
-        <v>2025</v>
+        <v>2065</v>
       </c>
       <c r="G22">
-        <v>0.324595363</v>
+        <v>0.7792039</v>
+      </c>
+      <c r="H22">
+        <v>17.92762875533091</v>
       </c>
     </row>
     <row r="23">
@@ -1095,7 +1163,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1114,10 +1182,13 @@
         </is>
       </c>
       <c r="F23">
-        <v>2030</v>
+        <v>2070</v>
       </c>
       <c r="G23">
-        <v>0.39244587</v>
+        <v>0.8057624</v>
+      </c>
+      <c r="H23">
+        <v>19.01800989687445</v>
       </c>
     </row>
     <row r="24">
@@ -1128,7 +1199,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1138,7 +1209,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1147,10 +1218,13 @@
         </is>
       </c>
       <c r="F24">
-        <v>2035</v>
+        <v>2020</v>
       </c>
       <c r="G24">
-        <v>0.370759619</v>
+        <v>0.11350709</v>
+      </c>
+      <c r="H24">
+        <v>22.4013033240396</v>
       </c>
     </row>
     <row r="25">
@@ -1161,7 +1235,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1171,7 +1245,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1180,10 +1254,13 @@
         </is>
       </c>
       <c r="F25">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="G25">
-        <v>0.351039969</v>
+        <v>0.08278290000000001</v>
+      </c>
+      <c r="H25">
+        <v>7.985688866450818</v>
       </c>
     </row>
     <row r="26">
@@ -1194,7 +1271,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1204,7 +1281,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1213,10 +1290,13 @@
         </is>
       </c>
       <c r="F26">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="G26">
-        <v>0.334660224</v>
+        <v>0.06409830130000001</v>
+      </c>
+      <c r="H26">
+        <v>4.219545911303639</v>
       </c>
     </row>
     <row r="27">
@@ -1227,7 +1307,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1237,7 +1317,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1246,10 +1326,13 @@
         </is>
       </c>
       <c r="F27">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="G27">
-        <v>0.320775739</v>
+        <v>0.0453270294</v>
+      </c>
+      <c r="H27">
+        <v>2.110785020201726</v>
       </c>
     </row>
     <row r="28">
@@ -1260,7 +1343,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1270,7 +1353,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1279,10 +1362,13 @@
         </is>
       </c>
       <c r="F28">
-        <v>2055</v>
+        <v>2040</v>
       </c>
       <c r="G28">
-        <v>0.292095557</v>
+        <v>0.0325140826</v>
+      </c>
+      <c r="H28">
+        <v>1.190890738635658</v>
       </c>
     </row>
     <row r="29">
@@ -1293,7 +1379,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1303,7 +1389,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1312,10 +1398,13 @@
         </is>
       </c>
       <c r="F29">
-        <v>2060</v>
+        <v>2045</v>
       </c>
       <c r="G29">
-        <v>0.1399373</v>
+        <v>0.0257850459</v>
+      </c>
+      <c r="H29">
+        <v>0.7744962150819522</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1415,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1336,7 +1425,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1345,10 +1434,13 @@
         </is>
       </c>
       <c r="F30">
-        <v>2065</v>
+        <v>2050</v>
       </c>
       <c r="G30">
-        <v>0.1398035</v>
+        <v>0.0176926798</v>
+      </c>
+      <c r="H30">
+        <v>0.4615629037483952</v>
       </c>
     </row>
     <row r="31">
@@ -1359,7 +1451,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1369,7 +1461,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1378,10 +1470,13 @@
         </is>
       </c>
       <c r="F31">
-        <v>2070</v>
+        <v>2055</v>
       </c>
       <c r="G31">
-        <v>0.0856065</v>
+        <v>0.0033172159</v>
+      </c>
+      <c r="H31">
+        <v>0.0788464727882303</v>
       </c>
     </row>
     <row r="32">
@@ -1392,7 +1487,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1411,10 +1506,13 @@
         </is>
       </c>
       <c r="F32">
-        <v>1975</v>
+        <v>2060</v>
       </c>
       <c r="G32">
-        <v>4.26616e-005</v>
+        <v>0.0034252112</v>
+      </c>
+      <c r="H32">
+        <v>0.07996939906640868</v>
       </c>
     </row>
     <row r="33">
@@ -1425,7 +1523,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1444,10 +1542,13 @@
         </is>
       </c>
       <c r="F33">
-        <v>1990</v>
+        <v>2065</v>
       </c>
       <c r="G33">
-        <v>0.001109</v>
+        <v>0.0030826226</v>
+      </c>
+      <c r="H33">
+        <v>0.07092381540389227</v>
       </c>
     </row>
     <row r="34">
@@ -1458,7 +1559,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1477,10 +1578,13 @@
         </is>
       </c>
       <c r="F34">
-        <v>2005</v>
+        <v>2070</v>
       </c>
       <c r="G34">
-        <v>0.008404817</v>
+        <v>0.0025660888</v>
+      </c>
+      <c r="H34">
+        <v>0.06056611998109949</v>
       </c>
     </row>
     <row r="35">
@@ -1491,7 +1595,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1501,7 +1605,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1510,10 +1614,13 @@
         </is>
       </c>
       <c r="F35">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="G35">
-        <v>0.143397</v>
+        <v>0.016</v>
+      </c>
+      <c r="H35">
+        <v>3.157695727946453</v>
       </c>
     </row>
     <row r="36">
@@ -1524,7 +1631,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1534,7 +1641,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1543,10 +1650,13 @@
         </is>
       </c>
       <c r="F36">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="G36">
-        <v>0.12066146</v>
+        <v>0.012879</v>
+      </c>
+      <c r="H36">
+        <v>1.242378400744841</v>
       </c>
     </row>
     <row r="37">
@@ -1557,7 +1667,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1567,7 +1677,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1576,10 +1686,13 @@
         </is>
       </c>
       <c r="F37">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="G37">
-        <v>0.11350709</v>
+        <v>0.0156788</v>
+      </c>
+      <c r="H37">
+        <v>1.032124332351807</v>
       </c>
     </row>
     <row r="38">
@@ -1590,7 +1703,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1600,7 +1713,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1609,10 +1722,13 @@
         </is>
       </c>
       <c r="F38">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="G38">
-        <v>0.08281282</v>
+        <v>0.0167627</v>
+      </c>
+      <c r="H38">
+        <v>0.7806039029360142</v>
       </c>
     </row>
     <row r="39">
@@ -1623,7 +1739,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1633,7 +1749,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1642,10 +1758,13 @@
         </is>
       </c>
       <c r="F39">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="G39">
-        <v>0.0638404507</v>
+        <v>0.0178465</v>
+      </c>
+      <c r="H39">
+        <v>0.6536623477440903</v>
       </c>
     </row>
     <row r="40">
@@ -1656,7 +1775,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1666,7 +1785,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1675,10 +1794,13 @@
         </is>
       </c>
       <c r="F40">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="G40">
-        <v>0.0417288491</v>
+        <v>0.0197557</v>
+      </c>
+      <c r="H40">
+        <v>0.5933949055446329</v>
       </c>
     </row>
     <row r="41">
@@ -1689,7 +1811,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1699,7 +1821,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1708,10 +1830,13 @@
         </is>
       </c>
       <c r="F41">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="G41">
-        <v>0.0297699366</v>
+        <v>0.0216648</v>
+      </c>
+      <c r="H41">
+        <v>0.5651867388188551</v>
       </c>
     </row>
     <row r="42">
@@ -1722,7 +1847,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1732,7 +1857,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1741,10 +1866,13 @@
         </is>
       </c>
       <c r="F42">
-        <v>2045</v>
+        <v>2055</v>
       </c>
       <c r="G42">
-        <v>0.0241100008</v>
+        <v>0.0235739</v>
+      </c>
+      <c r="H42">
+        <v>0.5603249595127234</v>
       </c>
     </row>
     <row r="43">
@@ -1755,7 +1883,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1765,7 +1893,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1774,10 +1902,13 @@
         </is>
       </c>
       <c r="F43">
-        <v>2050</v>
+        <v>2060</v>
       </c>
       <c r="G43">
-        <v>0.0167254784</v>
+        <v>0.025483</v>
+      </c>
+      <c r="H43">
+        <v>0.5949589900936015</v>
       </c>
     </row>
     <row r="44">
@@ -1788,7 +1919,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1798,7 +1929,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1807,10 +1938,13 @@
         </is>
       </c>
       <c r="F44">
-        <v>2055</v>
+        <v>2065</v>
       </c>
       <c r="G44">
-        <v>0.0035891581</v>
+        <v>0.0273921</v>
+      </c>
+      <c r="H44">
+        <v>0.630227081292714</v>
       </c>
     </row>
     <row r="45">
@@ -1821,7 +1955,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1831,7 +1965,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1840,10 +1974,13 @@
         </is>
       </c>
       <c r="F45">
-        <v>2060</v>
+        <v>2070</v>
       </c>
       <c r="G45">
-        <v>0.0037921116</v>
+        <v>0.0293013</v>
+      </c>
+      <c r="H45">
+        <v>0.6915840369211659</v>
       </c>
     </row>
     <row r="46">
@@ -1854,7 +1991,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1864,7 +2001,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1873,10 +2010,13 @@
         </is>
       </c>
       <c r="F46">
-        <v>2065</v>
+        <v>2020</v>
       </c>
       <c r="G46">
-        <v>0.0033951813</v>
+        <v>0.01248116</v>
+      </c>
+      <c r="H46">
+        <v>2.463231600738509</v>
       </c>
     </row>
     <row r="47">
@@ -1887,7 +2027,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1897,7 +2037,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1906,10 +2046,13 @@
         </is>
       </c>
       <c r="F47">
-        <v>2070</v>
+        <v>2025</v>
       </c>
       <c r="G47">
-        <v>0.003415657</v>
+        <v>0.30337969</v>
+      </c>
+      <c r="H47">
+        <v>29.26565525900035</v>
       </c>
     </row>
     <row r="48">
@@ -1920,7 +2063,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1930,7 +2073,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1939,10 +2082,13 @@
         </is>
       </c>
       <c r="F48">
-        <v>1975</v>
+        <v>2030</v>
       </c>
       <c r="G48">
-        <v>0.0026842</v>
+        <v>0.27037899</v>
+      </c>
+      <c r="H48">
+        <v>17.79885798247991</v>
       </c>
     </row>
     <row r="49">
@@ -1953,7 +2099,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1963,7 +2109,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1972,10 +2118,13 @@
         </is>
       </c>
       <c r="F49">
-        <v>1990</v>
+        <v>2035</v>
       </c>
       <c r="G49">
-        <v>0.005774</v>
+        <v>0.23294644</v>
+      </c>
+      <c r="H49">
+        <v>10.84782882465534</v>
       </c>
     </row>
     <row r="50">
@@ -1986,7 +2135,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1996,7 +2145,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2005,10 +2154,13 @@
         </is>
       </c>
       <c r="F50">
-        <v>2005</v>
+        <v>2040</v>
       </c>
       <c r="G50">
-        <v>0.008197400000000001</v>
+        <v>0.22222178</v>
+      </c>
+      <c r="H50">
+        <v>8.139299606907278</v>
       </c>
     </row>
     <row r="51">
@@ -2019,7 +2171,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2029,7 +2181,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2038,10 +2190,13 @@
         </is>
       </c>
       <c r="F51">
-        <v>2010</v>
+        <v>2045</v>
       </c>
       <c r="G51">
-        <v>0.0148904</v>
+        <v>0.245083648</v>
+      </c>
+      <c r="H51">
+        <v>7.361490008225173</v>
       </c>
     </row>
     <row r="52">
@@ -2052,7 +2207,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2062,7 +2217,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2071,10 +2226,13 @@
         </is>
       </c>
       <c r="F52">
-        <v>2015</v>
+        <v>2050</v>
       </c>
       <c r="G52">
-        <v>0.013</v>
+        <v>0.274644273</v>
+      </c>
+      <c r="H52">
+        <v>7.164861941589367</v>
       </c>
     </row>
     <row r="53">
@@ -2085,7 +2243,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2095,7 +2253,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2104,10 +2262,13 @@
         </is>
       </c>
       <c r="F53">
-        <v>2020</v>
+        <v>2055</v>
       </c>
       <c r="G53">
-        <v>0.016</v>
+        <v>0.32326528</v>
+      </c>
+      <c r="H53">
+        <v>7.683650347539831</v>
       </c>
     </row>
     <row r="54">
@@ -2118,7 +2279,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2128,7 +2289,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2137,10 +2298,13 @@
         </is>
       </c>
       <c r="F54">
-        <v>2025</v>
+        <v>2060</v>
       </c>
       <c r="G54">
-        <v>0.012879</v>
+        <v>0.33465496</v>
+      </c>
+      <c r="H54">
+        <v>7.813286388235867</v>
       </c>
     </row>
     <row r="55">
@@ -2151,7 +2315,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2161,7 +2325,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2170,10 +2334,13 @@
         </is>
       </c>
       <c r="F55">
-        <v>2030</v>
+        <v>2065</v>
       </c>
       <c r="G55">
-        <v>0.0156788</v>
+        <v>0.30522133</v>
+      </c>
+      <c r="H55">
+        <v>7.022416972564365</v>
       </c>
     </row>
     <row r="56">
@@ -2184,7 +2351,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2194,7 +2361,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2203,10 +2370,13 @@
         </is>
       </c>
       <c r="F56">
-        <v>2035</v>
+        <v>2070</v>
       </c>
       <c r="G56">
-        <v>0.0167627</v>
+        <v>0.261317</v>
+      </c>
+      <c r="H56">
+        <v>6.167735417067786</v>
       </c>
     </row>
     <row r="57">
@@ -2217,7 +2387,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2227,7 +2397,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2236,10 +2406,13 @@
         </is>
       </c>
       <c r="F57">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="G57">
-        <v>0.0178465</v>
+        <v>0.013147435</v>
+      </c>
+      <c r="H57">
+        <v>2.594724958309604</v>
       </c>
     </row>
     <row r="58">
@@ -2250,7 +2423,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2260,7 +2433,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2269,10 +2442,13 @@
         </is>
       </c>
       <c r="F58">
-        <v>2045</v>
+        <v>2025</v>
       </c>
       <c r="G58">
-        <v>0.0197557</v>
+        <v>0.008668415949999999</v>
+      </c>
+      <c r="H58">
+        <v>0.8362025580364989</v>
       </c>
     </row>
     <row r="59">
@@ -2283,7 +2459,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2293,7 +2469,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2302,10 +2478,13 @@
         </is>
       </c>
       <c r="F59">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="G59">
-        <v>0.0216648</v>
+        <v>0.00776703149</v>
+      </c>
+      <c r="H59">
+        <v>0.5112981982659205</v>
       </c>
     </row>
     <row r="60">
@@ -2316,7 +2495,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2326,7 +2505,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2335,10 +2514,13 @@
         </is>
       </c>
       <c r="F60">
-        <v>2055</v>
+        <v>2035</v>
       </c>
       <c r="G60">
-        <v>0.0235739</v>
+        <v>0.00653073472</v>
+      </c>
+      <c r="H60">
+        <v>0.3041226658874608</v>
       </c>
     </row>
     <row r="61">
@@ -2349,7 +2531,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2359,7 +2541,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2368,10 +2550,13 @@
         </is>
       </c>
       <c r="F61">
-        <v>2060</v>
+        <v>2040</v>
       </c>
       <c r="G61">
-        <v>0.025483</v>
+        <v>0.00565312203</v>
+      </c>
+      <c r="H61">
+        <v>0.2070564546669452</v>
       </c>
     </row>
     <row r="62">
@@ -2382,7 +2567,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2392,7 +2577,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2401,10 +2586,13 @@
         </is>
       </c>
       <c r="F62">
-        <v>2065</v>
+        <v>2045</v>
       </c>
       <c r="G62">
-        <v>0.0273921</v>
+        <v>0.00553461663</v>
+      </c>
+      <c r="H62">
+        <v>0.1662413031370493</v>
       </c>
     </row>
     <row r="63">
@@ -2415,7 +2603,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2425,7 +2613,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2434,10 +2622,13 @@
         </is>
       </c>
       <c r="F63">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="G63">
-        <v>0.0293013</v>
+        <v>0.00511167731</v>
+      </c>
+      <c r="H63">
+        <v>0.1333523609141666</v>
       </c>
     </row>
     <row r="64">
@@ -2448,7 +2639,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2458,7 +2649,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2467,10 +2658,13 @@
         </is>
       </c>
       <c r="F64">
-        <v>1975</v>
+        <v>2055</v>
       </c>
       <c r="G64">
-        <v>0.000190894</v>
+        <v>0.00531869359</v>
+      </c>
+      <c r="H64">
+        <v>0.1264193353869038</v>
       </c>
     </row>
     <row r="65">
@@ -2481,7 +2675,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2491,7 +2685,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2500,10 +2694,13 @@
         </is>
       </c>
       <c r="F65">
-        <v>1990</v>
+        <v>2060</v>
       </c>
       <c r="G65">
-        <v>0.0005975000000000001</v>
+        <v>0.00200868067</v>
+      </c>
+      <c r="H65">
+        <v>0.04689725004292034</v>
       </c>
     </row>
     <row r="66">
@@ -2514,7 +2711,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2524,7 +2721,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2533,10 +2730,13 @@
         </is>
       </c>
       <c r="F66">
-        <v>2005</v>
+        <v>2065</v>
       </c>
       <c r="G66">
-        <v>0.00168568</v>
+        <v>0.00082657333</v>
+      </c>
+      <c r="H66">
+        <v>0.01901748669288953</v>
       </c>
     </row>
     <row r="67">
@@ -2547,7 +2747,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2557,7 +2757,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2566,10 +2766,13 @@
         </is>
       </c>
       <c r="F67">
-        <v>2010</v>
+        <v>2070</v>
       </c>
       <c r="G67">
-        <v>0.00362113</v>
+        <v>0.00077683435</v>
+      </c>
+      <c r="H67">
+        <v>0.01833523549439888</v>
       </c>
     </row>
     <row r="68">
@@ -2580,7 +2783,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2590,7 +2793,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2599,10 +2802,13 @@
         </is>
       </c>
       <c r="F68">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="G68">
-        <v>0.01011792</v>
+        <v>0.016074069789</v>
+      </c>
+      <c r="H68">
+        <v>3.172313843964902</v>
       </c>
     </row>
     <row r="69">
@@ -2613,7 +2819,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2623,7 +2829,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2632,10 +2838,13 @@
         </is>
       </c>
       <c r="F69">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="G69">
-        <v>0.01248116</v>
+        <v>0.160438287914</v>
+      </c>
+      <c r="H69">
+        <v>15.47675002382449</v>
       </c>
     </row>
     <row r="70">
@@ -2646,7 +2855,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2656,7 +2865,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2665,10 +2874,13 @@
         </is>
       </c>
       <c r="F70">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="G70">
-        <v>0.30629419</v>
+        <v>0.47732524381</v>
+      </c>
+      <c r="H70">
+        <v>31.42198373485598</v>
       </c>
     </row>
     <row r="71">
@@ -2679,7 +2891,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2689,7 +2901,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2698,10 +2910,13 @@
         </is>
       </c>
       <c r="F71">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="G71">
-        <v>0.24371808</v>
+        <v>0.94183292328</v>
+      </c>
+      <c r="H71">
+        <v>43.85919069278837</v>
       </c>
     </row>
     <row r="72">
@@ -2712,7 +2927,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2722,7 +2937,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2731,10 +2946,13 @@
         </is>
       </c>
       <c r="F72">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="G72">
-        <v>0.23980717</v>
+        <v>1.371838686521</v>
+      </c>
+      <c r="H72">
+        <v>50.246227358725</v>
       </c>
     </row>
     <row r="73">
@@ -2745,7 +2963,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2755,7 +2973,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2764,10 +2982,13 @@
         </is>
       </c>
       <c r="F73">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="G73">
-        <v>0.22774826</v>
+        <v>1.763792354161</v>
+      </c>
+      <c r="H73">
+        <v>52.97840103857177</v>
       </c>
     </row>
     <row r="74">
@@ -2778,7 +2999,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2788,7 +3009,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2797,10 +3018,13 @@
         </is>
       </c>
       <c r="F74">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="G74">
-        <v>0.253916473</v>
+        <v>2.076238214876</v>
+      </c>
+      <c r="H74">
+        <v>54.16446520054871</v>
       </c>
     </row>
     <row r="75">
@@ -2811,7 +3035,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2821,7 +3045,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2830,10 +3054,13 @@
         </is>
       </c>
       <c r="F75">
-        <v>2050</v>
+        <v>2055</v>
       </c>
       <c r="G75">
-        <v>0.293690851</v>
+        <v>2.26740760191</v>
+      </c>
+      <c r="H75">
+        <v>53.89371604779277</v>
       </c>
     </row>
     <row r="76">
@@ -2844,7 +3071,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2854,7 +3081,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2863,10 +3090,13 @@
         </is>
       </c>
       <c r="F76">
-        <v>2055</v>
+        <v>2060</v>
       </c>
       <c r="G76">
-        <v>0.34961194</v>
+        <v>2.32998876273</v>
+      </c>
+      <c r="H76">
+        <v>54.3989232509234</v>
       </c>
     </row>
     <row r="77">
@@ -2877,7 +3107,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2887,7 +3117,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2896,10 +3126,13 @@
         </is>
       </c>
       <c r="F77">
-        <v>2060</v>
+        <v>2065</v>
       </c>
       <c r="G77">
-        <v>0.36944849</v>
+        <v>2.30575498921</v>
+      </c>
+      <c r="H77">
+        <v>53.04993910747739</v>
       </c>
     </row>
     <row r="78">
@@ -2910,7 +3143,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2920,7 +3153,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2929,10 +3162,13 @@
         </is>
       </c>
       <c r="F78">
-        <v>2065</v>
+        <v>2070</v>
       </c>
       <c r="G78">
-        <v>0.3363983</v>
+        <v>2.2314450154</v>
+      </c>
+      <c r="H78">
+        <v>52.6676888710721</v>
       </c>
     </row>
     <row r="79">
@@ -2943,7 +3179,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2953,7 +3189,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2962,10 +3198,13 @@
         </is>
       </c>
       <c r="F79">
-        <v>2070</v>
+        <v>2020</v>
       </c>
       <c r="G79">
-        <v>0.33037482</v>
+        <v>0.049966076756</v>
+      </c>
+      <c r="H79">
+        <v>9.861104194666609</v>
       </c>
     </row>
     <row r="80">
@@ -2976,7 +3215,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2986,7 +3225,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2995,10 +3234,13 @@
         </is>
       </c>
       <c r="F80">
-        <v>1975</v>
+        <v>2025</v>
       </c>
       <c r="G80">
-        <v>0.00271376</v>
+        <v>0.128884560916</v>
+      </c>
+      <c r="H80">
+        <v>12.4329058678097</v>
       </c>
     </row>
     <row r="81">
@@ -3009,7 +3251,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3019,7 +3261,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3028,10 +3270,13 @@
         </is>
       </c>
       <c r="F81">
-        <v>1990</v>
+        <v>2030</v>
       </c>
       <c r="G81">
-        <v>0.0068026</v>
+        <v>0.266003209116</v>
+      </c>
+      <c r="H81">
+        <v>17.5108034168616</v>
       </c>
     </row>
     <row r="82">
@@ -3042,7 +3287,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3052,7 +3297,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3061,10 +3306,13 @@
         </is>
       </c>
       <c r="F82">
-        <v>2005</v>
+        <v>2035</v>
       </c>
       <c r="G82">
-        <v>0.0157346</v>
+        <v>0.431364362516</v>
+      </c>
+      <c r="H82">
+        <v>20.08773675884525</v>
       </c>
     </row>
     <row r="83">
@@ -3075,7 +3323,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3085,7 +3333,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3094,10 +3342,13 @@
         </is>
       </c>
       <c r="F83">
-        <v>2010</v>
+        <v>2040</v>
       </c>
       <c r="G83">
-        <v>0.00715135</v>
+        <v>0.5577716687600001</v>
+      </c>
+      <c r="H83">
+        <v>20.42945891389352</v>
       </c>
     </row>
     <row r="84">
@@ -3108,7 +3359,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3118,7 +3369,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3127,10 +3378,13 @@
         </is>
       </c>
       <c r="F84">
-        <v>2015</v>
+        <v>2045</v>
       </c>
       <c r="G84">
-        <v>0.010608114</v>
+        <v>0.68373911996</v>
+      </c>
+      <c r="H84">
+        <v>20.53722776240956</v>
       </c>
     </row>
     <row r="85">
@@ -3141,7 +3395,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3151,7 +3405,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3160,10 +3414,13 @@
         </is>
       </c>
       <c r="F85">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="G85">
-        <v>0.013147435</v>
+        <v>0.776750864</v>
+      </c>
+      <c r="H85">
+        <v>20.2637129213696</v>
       </c>
     </row>
     <row r="86">
@@ -3174,7 +3431,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3184,7 +3441,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3193,10 +3450,13 @@
         </is>
       </c>
       <c r="F86">
-        <v>2025</v>
+        <v>2055</v>
       </c>
       <c r="G86">
-        <v>0.008669632070000001</v>
+        <v>0.8406505854</v>
+      </c>
+      <c r="H86">
+        <v>19.98131430219871</v>
       </c>
     </row>
     <row r="87">
@@ -3207,7 +3467,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3217,7 +3477,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3226,10 +3486,13 @@
         </is>
       </c>
       <c r="F87">
-        <v>2030</v>
+        <v>2060</v>
       </c>
       <c r="G87">
-        <v>0.0077535665</v>
+        <v>0.8845362622</v>
+      </c>
+      <c r="H87">
+        <v>20.65152459520783</v>
       </c>
     </row>
     <row r="88">
@@ -3240,7 +3503,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3250,7 +3513,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3259,10 +3522,13 @@
         </is>
       </c>
       <c r="F88">
-        <v>2035</v>
+        <v>2065</v>
       </c>
       <c r="G88">
-        <v>0.005958386600000001</v>
+        <v>0.9027172811999999</v>
+      </c>
+      <c r="H88">
+        <v>20.76937793608997</v>
       </c>
     </row>
     <row r="89">
@@ -3273,7 +3539,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3283,7 +3549,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3292,10 +3558,13 @@
         </is>
       </c>
       <c r="F89">
-        <v>2040</v>
+        <v>2070</v>
       </c>
       <c r="G89">
-        <v>0.00502416664</v>
+        <v>0.8890690604</v>
+      </c>
+      <c r="H89">
+        <v>20.98425564371341</v>
       </c>
     </row>
     <row r="90">
@@ -3306,7 +3575,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3316,7 +3585,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>biomass</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3325,10 +3594,13 @@
         </is>
       </c>
       <c r="F90">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="G90">
-        <v>0.00493647796</v>
+        <v>0.0006416429963</v>
+      </c>
+      <c r="H90">
+        <v>0.1254443127025758</v>
       </c>
     </row>
     <row r="91">
@@ -3339,7 +3611,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3349,7 +3621,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>biomass</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3358,10 +3630,13 @@
         </is>
       </c>
       <c r="F91">
-        <v>2050</v>
+        <v>2025</v>
       </c>
       <c r="G91">
-        <v>0.00457711309</v>
+        <v>0.01543157024556</v>
+      </c>
+      <c r="H91">
+        <v>1.488809154445157</v>
       </c>
     </row>
     <row r="92">
@@ -3372,7 +3647,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3382,7 +3657,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>biomass</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3391,10 +3666,13 @@
         </is>
       </c>
       <c r="F92">
-        <v>2055</v>
+        <v>2030</v>
       </c>
       <c r="G92">
-        <v>0.00483474882</v>
+        <v>0.01499168909034</v>
+      </c>
+      <c r="H92">
+        <v>0.9949754713347001</v>
       </c>
     </row>
     <row r="93">
@@ -3405,7 +3683,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3415,7 +3693,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>biomass</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3424,10 +3702,13 @@
         </is>
       </c>
       <c r="F93">
-        <v>2060</v>
+        <v>2035</v>
       </c>
       <c r="G93">
-        <v>0.00189548845</v>
+        <v>0.016729841330065</v>
+      </c>
+      <c r="H93">
+        <v>0.7423375963807392</v>
       </c>
     </row>
     <row r="94">
@@ -3438,7 +3719,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3448,7 +3729,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>biomass</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3457,10 +3738,13 @@
         </is>
       </c>
       <c r="F94">
-        <v>2065</v>
+        <v>2040</v>
       </c>
       <c r="G94">
-        <v>0.00083688292</v>
+        <v>0.014935828335734</v>
+      </c>
+      <c r="H94">
+        <v>0.5130722758117706</v>
       </c>
     </row>
     <row r="95">
@@ -3471,7 +3755,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3481,7 +3765,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>biomass</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3490,10 +3774,13 @@
         </is>
       </c>
       <c r="F95">
-        <v>2070</v>
+        <v>2045</v>
       </c>
       <c r="G95">
-        <v>0.00085808966</v>
+        <v>0.006584848736</v>
+      </c>
+      <c r="H95">
+        <v>0.1674426626119056</v>
       </c>
     </row>
     <row r="96">
@@ -3504,7 +3791,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3514,7 +3801,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>biomass</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3523,10 +3810,13 @@
         </is>
       </c>
       <c r="F96">
-        <v>2005</v>
+        <v>2050</v>
       </c>
       <c r="G96">
-        <v>1.80009e-006</v>
+        <v>0.00157200473792</v>
+      </c>
+      <c r="H96">
+        <v>0.03158320170954916</v>
       </c>
     </row>
     <row r="97">
@@ -3537,7 +3827,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3547,7 +3837,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>biomass</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3556,10 +3846,13 @@
         </is>
       </c>
       <c r="F97">
-        <v>2010</v>
+        <v>2055</v>
       </c>
       <c r="G97">
-        <v>4.03386e-006</v>
+        <v>3.085661e-006</v>
+      </c>
+      <c r="H97">
+        <v>5.677700448674624e-005</v>
       </c>
     </row>
     <row r="98">
@@ -3570,7 +3863,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3580,7 +3873,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>biomass</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3589,10 +3882,13 @@
         </is>
       </c>
       <c r="F98">
-        <v>2015</v>
+        <v>2060</v>
       </c>
       <c r="G98">
-        <v>0.007650819779</v>
+        <v>2.763695e-007</v>
+      </c>
+      <c r="H98">
+        <v>4.736385700008706e-006</v>
       </c>
     </row>
     <row r="99">
@@ -3603,7 +3899,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3613,7 +3909,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>biomass</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3622,10 +3918,13 @@
         </is>
       </c>
       <c r="F99">
-        <v>2020</v>
+        <v>2065</v>
       </c>
       <c r="G99">
-        <v>0.016074069789</v>
+        <v>2.577058e-008</v>
+      </c>
+      <c r="H99">
+        <v>4.013942797027327e-007</v>
       </c>
     </row>
     <row r="100">
@@ -3636,7 +3935,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3646,7 +3945,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>coal</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3655,10 +3954,13 @@
         </is>
       </c>
       <c r="F100">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="G100">
-        <v>0.161884215111</v>
+        <v>0.28774495</v>
+      </c>
+      <c r="H100">
+        <v>56.25553102664956</v>
       </c>
     </row>
     <row r="101">
@@ -3669,7 +3971,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3679,7 +3981,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>coal</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3688,10 +3990,13 @@
         </is>
       </c>
       <c r="F101">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="G101">
-        <v>0.443624728469</v>
+        <v>0.326445137</v>
+      </c>
+      <c r="H101">
+        <v>31.49481878096887</v>
       </c>
     </row>
     <row r="102">
@@ -3702,7 +4007,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3712,7 +4017,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>coal</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3721,10 +4026,13 @@
         </is>
       </c>
       <c r="F102">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="G102">
-        <v>0.927810498439</v>
+        <v>0.403235236</v>
+      </c>
+      <c r="H102">
+        <v>26.76210576274431</v>
       </c>
     </row>
     <row r="103">
@@ -3735,7 +4043,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3745,7 +4053,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>coal</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3754,10 +4062,13 @@
         </is>
       </c>
       <c r="F103">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="G103">
-        <v>1.37407042943</v>
+        <v>0.381242071</v>
+      </c>
+      <c r="H103">
+        <v>16.91649771458147</v>
       </c>
     </row>
     <row r="104">
@@ -3768,7 +4079,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3778,7 +4089,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>coal</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3787,10 +4098,13 @@
         </is>
       </c>
       <c r="F104">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="G104">
-        <v>1.78615117433</v>
+        <v>0.361533718</v>
+      </c>
+      <c r="H104">
+        <v>12.41932642149874</v>
       </c>
     </row>
     <row r="105">
@@ -3801,7 +4115,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3811,7 +4125,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>coal</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3820,10 +4134,13 @@
         </is>
       </c>
       <c r="F105">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="G105">
-        <v>2.139369763458</v>
+        <v>0.1403376567</v>
+      </c>
+      <c r="H105">
+        <v>3.568572619458198</v>
       </c>
     </row>
     <row r="106">
@@ -3834,7 +4151,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3844,7 +4161,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>coal</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3853,10 +4170,13 @@
         </is>
       </c>
       <c r="F106">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="G106">
-        <v>2.41836861709</v>
+        <v>0.007178343357354</v>
+      </c>
+      <c r="H106">
+        <v>0.1442203453506712</v>
       </c>
     </row>
     <row r="107">
@@ -3867,7 +4187,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3877,7 +4197,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>coal</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3886,10 +4206,13 @@
         </is>
       </c>
       <c r="F107">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="G107">
-        <v>2.53136084317</v>
+        <v>3.05032e-006</v>
+      </c>
+      <c r="H107">
+        <v>5.612672044207442e-005</v>
       </c>
     </row>
     <row r="108">
@@ -3900,7 +4223,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3910,7 +4233,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>coal</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3919,10 +4242,13 @@
         </is>
       </c>
       <c r="F108">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="G108">
-        <v>2.54421239275</v>
+        <v>2.134723e-007</v>
+      </c>
+      <c r="H108">
+        <v>3.658461404272065e-006</v>
       </c>
     </row>
     <row r="109">
@@ -3933,7 +4259,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3943,7 +4269,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>coal</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3952,10 +4278,13 @@
         </is>
       </c>
       <c r="F109">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="G109">
-        <v>2.5720209409</v>
+        <v>1.853507e-008</v>
+      </c>
+      <c r="H109">
+        <v>2.886962991088959e-007</v>
       </c>
     </row>
     <row r="110">
@@ -3966,7 +4295,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3976,7 +4305,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3985,10 +4314,13 @@
         </is>
       </c>
       <c r="F110">
-        <v>1990</v>
+        <v>2020</v>
       </c>
       <c r="G110">
-        <v>5.5e-006</v>
+        <v>0.11350732</v>
+      </c>
+      <c r="H110">
+        <v>22.19123067845966</v>
       </c>
     </row>
     <row r="111">
@@ -3999,7 +4331,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4009,7 +4341,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4018,10 +4350,13 @@
         </is>
       </c>
       <c r="F111">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="G111">
-        <v>0.00113416</v>
+        <v>0.08276036000000001</v>
+      </c>
+      <c r="H111">
+        <v>7.98456538333345</v>
       </c>
     </row>
     <row r="112">
@@ -4032,7 +4367,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4042,7 +4377,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4051,10 +4386,13 @@
         </is>
       </c>
       <c r="F112">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="G112">
-        <v>0.0107877</v>
+        <v>0.0640752025</v>
+      </c>
+      <c r="H112">
+        <v>4.252573170649844</v>
       </c>
     </row>
     <row r="113">
@@ -4065,7 +4403,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4075,7 +4413,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4084,10 +4422,13 @@
         </is>
       </c>
       <c r="F113">
-        <v>2015</v>
+        <v>2035</v>
       </c>
       <c r="G113">
-        <v>0.024972142556</v>
+        <v>0.0383372405</v>
+      </c>
+      <c r="H113">
+        <v>1.701102503195693</v>
       </c>
     </row>
     <row r="114">
@@ -4098,7 +4439,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4108,7 +4449,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4117,10 +4458,13 @@
         </is>
       </c>
       <c r="F114">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="G114">
-        <v>0.049966076756</v>
+        <v>0.0269287837</v>
+      </c>
+      <c r="H114">
+        <v>0.925051629359325</v>
       </c>
     </row>
     <row r="115">
@@ -4131,7 +4475,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4141,7 +4485,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4150,10 +4494,13 @@
         </is>
       </c>
       <c r="F115">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="G115">
-        <v>0.129674714716</v>
+        <v>0.01212111136</v>
+      </c>
+      <c r="H115">
+        <v>0.3082213793063834</v>
       </c>
     </row>
     <row r="116">
@@ -4164,7 +4511,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4174,7 +4521,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4183,10 +4530,13 @@
         </is>
       </c>
       <c r="F116">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="G116">
-        <v>0.251585646316</v>
+        <v>8.7724061624e-005</v>
+      </c>
+      <c r="H116">
+        <v>0.001762467164518629</v>
       </c>
     </row>
     <row r="117">
@@ -4197,7 +4547,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4207,7 +4557,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4216,10 +4566,13 @@
         </is>
       </c>
       <c r="F117">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="G117">
-        <v>0.423952812316</v>
+        <v>8.19393e-006</v>
+      </c>
+      <c r="H117">
+        <v>0.0001507705481496783</v>
       </c>
     </row>
     <row r="118">
@@ -4230,7 +4583,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4240,7 +4593,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4249,10 +4602,13 @@
         </is>
       </c>
       <c r="F118">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="G118">
-        <v>0.55598171416</v>
+        <v>1.4303e-006</v>
+      </c>
+      <c r="H118">
+        <v>2.451230134556256e-005</v>
       </c>
     </row>
     <row r="119">
@@ -4263,7 +4619,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4273,7 +4629,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4282,10 +4638,13 @@
         </is>
       </c>
       <c r="F119">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="G119">
-        <v>0.68953798096</v>
+        <v>1.91715e-007</v>
+      </c>
+      <c r="H119">
+        <v>2.986091284449531e-006</v>
       </c>
     </row>
     <row r="120">
@@ -4296,7 +4655,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4306,7 +4665,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4315,10 +4674,13 @@
         </is>
       </c>
       <c r="F120">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="G120">
-        <v>0.797649973</v>
+        <v>0.016</v>
+      </c>
+      <c r="H120">
+        <v>3.128077474257647</v>
       </c>
     </row>
     <row r="121">
@@ -4329,7 +4691,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4339,7 +4701,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4348,10 +4710,13 @@
         </is>
       </c>
       <c r="F121">
-        <v>2055</v>
+        <v>2025</v>
       </c>
       <c r="G121">
-        <v>0.8976020806</v>
+        <v>0.012879</v>
+      </c>
+      <c r="H121">
+        <v>1.242541931571485</v>
       </c>
     </row>
     <row r="122">
@@ -4362,7 +4727,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4372,7 +4737,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4381,10 +4746,13 @@
         </is>
       </c>
       <c r="F122">
-        <v>2060</v>
+        <v>2030</v>
       </c>
       <c r="G122">
-        <v>0.962306709</v>
+        <v>0.0156788</v>
+      </c>
+      <c r="H122">
+        <v>1.04057797129841</v>
       </c>
     </row>
     <row r="123">
@@ -4395,7 +4763,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4405,7 +4773,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4414,10 +4782,13 @@
         </is>
       </c>
       <c r="F123">
-        <v>2065</v>
+        <v>2035</v>
       </c>
       <c r="G123">
-        <v>0.9967422338</v>
+        <v>0.0167627</v>
+      </c>
+      <c r="H123">
+        <v>0.7437956033981746</v>
       </c>
     </row>
     <row r="124">
@@ -4428,7 +4799,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4438,7 +4809,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4447,10 +4818,13 @@
         </is>
       </c>
       <c r="F124">
-        <v>2070</v>
+        <v>2040</v>
       </c>
       <c r="G124">
-        <v>1.0269835774</v>
+        <v>0.0178465</v>
+      </c>
+      <c r="H124">
+        <v>0.6130590258839352</v>
       </c>
     </row>
     <row r="125">
@@ -4461,7 +4835,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4471,7 +4845,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4480,10 +4854,13 @@
         </is>
       </c>
       <c r="F125">
-        <v>2005</v>
+        <v>2045</v>
       </c>
       <c r="G125">
-        <v>0.000187109</v>
+        <v>0.0197557</v>
+      </c>
+      <c r="H125">
+        <v>0.5023573270069452</v>
       </c>
     </row>
     <row r="126">
@@ -4494,7 +4871,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4504,7 +4881,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4513,10 +4890,13 @@
         </is>
       </c>
       <c r="F126">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="G126">
-        <v>1.57419e-006</v>
+        <v>0.0216648</v>
+      </c>
+      <c r="H126">
+        <v>0.4352682481748744</v>
       </c>
     </row>
     <row r="127">
@@ -4527,7 +4907,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4537,7 +4917,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4546,10 +4926,13 @@
         </is>
       </c>
       <c r="F127">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="G127">
-        <v>0.0004392884508</v>
+        <v>0.0235739</v>
+      </c>
+      <c r="H127">
+        <v>0.4337661933926336</v>
       </c>
     </row>
     <row r="128">
@@ -4560,7 +4943,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4570,7 +4953,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4579,10 +4962,13 @@
         </is>
       </c>
       <c r="F128">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="G128">
-        <v>0.0006270020057</v>
+        <v>0.025483</v>
+      </c>
+      <c r="H128">
+        <v>0.4367244460525559</v>
       </c>
     </row>
     <row r="129">
@@ -4593,7 +4979,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4603,7 +4989,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4612,10 +4998,13 @@
         </is>
       </c>
       <c r="F129">
-        <v>2025</v>
+        <v>2065</v>
       </c>
       <c r="G129">
-        <v>0.01566678031818</v>
+        <v>0.0273921</v>
+      </c>
+      <c r="H129">
+        <v>0.4266505545876431</v>
       </c>
     </row>
     <row r="130">
@@ -4626,7 +5015,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4636,7 +5025,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>hydro</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4645,10 +5034,13 @@
         </is>
       </c>
       <c r="F130">
-        <v>2030</v>
+        <v>2070</v>
       </c>
       <c r="G130">
-        <v>0.01361569325417</v>
+        <v>0.0293013</v>
+      </c>
+      <c r="H130">
+        <v>0.4523445381495667</v>
       </c>
     </row>
     <row r="131">
@@ -4659,7 +5051,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4669,7 +5061,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4678,10 +5070,13 @@
         </is>
       </c>
       <c r="F131">
-        <v>2035</v>
+        <v>2020</v>
       </c>
       <c r="G131">
-        <v>0.013660818614723</v>
+        <v>0.01272572</v>
+      </c>
+      <c r="H131">
+        <v>2.487939879731877</v>
       </c>
     </row>
     <row r="132">
@@ -4692,7 +5087,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4702,7 +5097,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4711,10 +5106,13 @@
         </is>
       </c>
       <c r="F132">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="G132">
-        <v>0.012635362618388</v>
+        <v>0.30119545</v>
+      </c>
+      <c r="H132">
+        <v>29.05877600928199</v>
       </c>
     </row>
     <row r="133">
@@ -4725,7 +5123,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4735,7 +5133,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4744,10 +5142,13 @@
         </is>
       </c>
       <c r="F133">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="G133">
-        <v>0.004265134996</v>
+        <v>0.26610124</v>
+      </c>
+      <c r="H133">
+        <v>17.66073222945578</v>
       </c>
     </row>
     <row r="134">
@@ -4758,7 +5159,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4768,7 +5169,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4777,10 +5178,13 @@
         </is>
       </c>
       <c r="F134">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="G134">
-        <v>4.383947e-005</v>
+        <v>0.27886375</v>
+      </c>
+      <c r="H134">
+        <v>12.3737602651797</v>
       </c>
     </row>
     <row r="135">
@@ -4791,7 +5195,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4801,7 +5205,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4810,10 +5214,13 @@
         </is>
       </c>
       <c r="F135">
-        <v>2055</v>
+        <v>2040</v>
       </c>
       <c r="G135">
-        <v>2.131662e-006</v>
+        <v>0.26703475</v>
+      </c>
+      <c r="H135">
+        <v>9.173118746653973</v>
       </c>
     </row>
     <row r="136">
@@ -4824,7 +5231,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4834,7 +5241,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4843,10 +5250,13 @@
         </is>
       </c>
       <c r="F136">
-        <v>2060</v>
+        <v>2045</v>
       </c>
       <c r="G136">
-        <v>4.297832e-007</v>
+        <v>0.442034217</v>
+      </c>
+      <c r="H136">
+        <v>11.24025611331049</v>
       </c>
     </row>
     <row r="137">
@@ -4857,7 +5267,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4867,7 +5277,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4876,10 +5286,13 @@
         </is>
       </c>
       <c r="F137">
-        <v>2065</v>
+        <v>2050</v>
       </c>
       <c r="G137">
-        <v>2.986875e-008</v>
+        <v>0.514779408</v>
+      </c>
+      <c r="H137">
+        <v>10.34245093961905</v>
       </c>
     </row>
     <row r="138">
@@ -4890,7 +5303,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4900,7 +5313,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4909,10 +5322,13 @@
         </is>
       </c>
       <c r="F138">
-        <v>1975</v>
+        <v>2055</v>
       </c>
       <c r="G138">
-        <v>0.00704567</v>
+        <v>0.46174616</v>
+      </c>
+      <c r="H138">
+        <v>8.496255356002441</v>
       </c>
     </row>
     <row r="139">
@@ -4923,7 +5339,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4933,7 +5349,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4942,10 +5358,13 @@
         </is>
       </c>
       <c r="F139">
-        <v>1990</v>
+        <v>2060</v>
       </c>
       <c r="G139">
-        <v>0.0409617</v>
+        <v>0.51947561</v>
+      </c>
+      <c r="H139">
+        <v>8.902707609585354</v>
       </c>
     </row>
     <row r="140">
@@ -4956,7 +5375,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4966,7 +5385,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4975,10 +5394,13 @@
         </is>
       </c>
       <c r="F140">
-        <v>2005</v>
+        <v>2065</v>
       </c>
       <c r="G140">
-        <v>0.100899</v>
+        <v>0.6177969</v>
+      </c>
+      <c r="H140">
+        <v>9.62260615314367</v>
       </c>
     </row>
     <row r="141">
@@ -4989,7 +5411,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4999,7 +5421,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5008,10 +5430,13 @@
         </is>
       </c>
       <c r="F141">
-        <v>2010</v>
+        <v>2070</v>
       </c>
       <c r="G141">
-        <v>0.160499</v>
+        <v>0.5808376</v>
+      </c>
+      <c r="H141">
+        <v>8.96679382525358</v>
       </c>
     </row>
     <row r="142">
@@ -5022,7 +5447,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5032,7 +5457,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5041,10 +5466,13 @@
         </is>
       </c>
       <c r="F142">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="G142">
-        <v>0.294818</v>
+        <v>0.0133319813</v>
+      </c>
+      <c r="H142">
+        <v>2.606466899484636</v>
       </c>
     </row>
     <row r="143">
@@ -5055,7 +5483,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5065,7 +5493,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5074,10 +5502,13 @@
         </is>
       </c>
       <c r="F143">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="G143">
-        <v>0.284895765</v>
+        <v>0.00882654812</v>
+      </c>
+      <c r="H143">
+        <v>0.851568922286937</v>
       </c>
     </row>
     <row r="144">
@@ -5088,7 +5519,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5098,7 +5529,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5107,10 +5538,13 @@
         </is>
       </c>
       <c r="F144">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="G144">
-        <v>0.324595363</v>
+        <v>0.007911148769999999</v>
+      </c>
+      <c r="H144">
+        <v>0.5250508417561617</v>
       </c>
     </row>
     <row r="145">
@@ -5121,7 +5555,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5131,7 +5565,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5140,10 +5574,13 @@
         </is>
       </c>
       <c r="F145">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="G145">
-        <v>0.39244587</v>
+        <v>0.00598023332</v>
+      </c>
+      <c r="H145">
+        <v>0.2653552978166566</v>
       </c>
     </row>
     <row r="146">
@@ -5154,7 +5591,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5164,7 +5601,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5173,10 +5610,13 @@
         </is>
       </c>
       <c r="F146">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="G146">
-        <v>0.370518325</v>
+        <v>0.00516464974</v>
+      </c>
+      <c r="H146">
+        <v>0.1774149070482234</v>
       </c>
     </row>
     <row r="147">
@@ -5187,7 +5627,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5197,7 +5637,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5206,10 +5646,13 @@
         </is>
       </c>
       <c r="F147">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="G147">
-        <v>0.350812973</v>
+        <v>0.001532325678</v>
+      </c>
+      <c r="H147">
+        <v>0.03896470546243287</v>
       </c>
     </row>
     <row r="148">
@@ -5220,7 +5663,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5230,7 +5673,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5239,10 +5682,13 @@
         </is>
       </c>
       <c r="F148">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="G148">
-        <v>0.0548349189</v>
+        <v>0.000202698995147</v>
+      </c>
+      <c r="H148">
+        <v>0.004072432541470128</v>
       </c>
     </row>
     <row r="149">
@@ -5253,7 +5699,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5263,7 +5709,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5272,10 +5718,13 @@
         </is>
       </c>
       <c r="F149">
-        <v>2050</v>
+        <v>2055</v>
       </c>
       <c r="G149">
-        <v>5.984367105e-005</v>
+        <v>3.42606e-006</v>
+      </c>
+      <c r="H149">
+        <v>6.304043898272098e-005</v>
       </c>
     </row>
     <row r="150">
@@ -5286,7 +5735,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5296,7 +5745,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5305,10 +5754,13 @@
         </is>
       </c>
       <c r="F150">
-        <v>2055</v>
+        <v>2060</v>
       </c>
       <c r="G150">
-        <v>2.039147e-006</v>
+        <v>3.54973e-007</v>
+      </c>
+      <c r="H150">
+        <v>6.083482587945451e-006</v>
       </c>
     </row>
     <row r="151">
@@ -5319,7 +5771,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5329,7 +5781,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5338,10 +5790,13 @@
         </is>
       </c>
       <c r="F151">
-        <v>2060</v>
+        <v>2065</v>
       </c>
       <c r="G151">
-        <v>3.345658e-007</v>
+        <v>3.56789e-008</v>
+      </c>
+      <c r="H151">
+        <v>5.557230906749414e-007</v>
       </c>
     </row>
     <row r="152">
@@ -5352,7 +5807,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5362,7 +5817,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>coal</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5371,10 +5826,13 @@
         </is>
       </c>
       <c r="F152">
-        <v>2065</v>
+        <v>2020</v>
       </c>
       <c r="G152">
-        <v>2.162455e-008</v>
+        <v>0.016442516775</v>
+      </c>
+      <c r="H152">
+        <v>3.214591646498812</v>
       </c>
     </row>
     <row r="153">
@@ -5385,7 +5843,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5395,7 +5853,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5404,10 +5862,13 @@
         </is>
       </c>
       <c r="F153">
-        <v>1975</v>
+        <v>2025</v>
       </c>
       <c r="G153">
-        <v>4.26616e-005</v>
+        <v>0.159603465624</v>
+      </c>
+      <c r="H153">
+        <v>15.39824508594985</v>
       </c>
     </row>
     <row r="154">
@@ -5418,7 +5879,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5428,7 +5889,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5437,10 +5898,13 @@
         </is>
       </c>
       <c r="F154">
-        <v>1990</v>
+        <v>2030</v>
       </c>
       <c r="G154">
-        <v>0.001109</v>
+        <v>0.470748918467</v>
+      </c>
+      <c r="H154">
+        <v>31.24288558877664</v>
       </c>
     </row>
     <row r="155">
@@ -5451,7 +5915,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5461,7 +5925,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5470,10 +5934,13 @@
         </is>
       </c>
       <c r="F155">
-        <v>2005</v>
+        <v>2035</v>
       </c>
       <c r="G155">
-        <v>0.008404817</v>
+        <v>1.046716592567</v>
+      </c>
+      <c r="H155">
+        <v>46.44497602147942</v>
       </c>
     </row>
     <row r="156">
@@ -5484,7 +5951,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5494,7 +5961,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5503,10 +5970,13 @@
         </is>
       </c>
       <c r="F156">
-        <v>2010</v>
+        <v>2040</v>
       </c>
       <c r="G156">
-        <v>0.143397</v>
+        <v>1.585100370352</v>
+      </c>
+      <c r="H156">
+        <v>54.45101778927308</v>
       </c>
     </row>
     <row r="157">
@@ -5517,7 +5987,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5527,7 +5997,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5536,10 +6006,13 @@
         </is>
       </c>
       <c r="F157">
-        <v>2015</v>
+        <v>2045</v>
       </c>
       <c r="G157">
-        <v>0.12066146</v>
+        <v>2.394818616592</v>
+      </c>
+      <c r="H157">
+        <v>60.89658573969171</v>
       </c>
     </row>
     <row r="158">
@@ -5550,7 +6023,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5560,7 +6033,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5569,10 +6042,13 @@
         </is>
       </c>
       <c r="F158">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="G158">
-        <v>0.11350709</v>
+        <v>3.229212328423</v>
+      </c>
+      <c r="H158">
+        <v>64.87821688533408</v>
       </c>
     </row>
     <row r="159">
@@ -5583,7 +6059,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5593,7 +6069,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5602,10 +6078,13 @@
         </is>
       </c>
       <c r="F159">
-        <v>2025</v>
+        <v>2055</v>
       </c>
       <c r="G159">
-        <v>0.08281282</v>
+        <v>3.69845171588</v>
+      </c>
+      <c r="H159">
+        <v>68.0525208914826</v>
       </c>
     </row>
     <row r="160">
@@ -5616,7 +6095,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5626,7 +6105,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5635,10 +6114,13 @@
         </is>
       </c>
       <c r="F160">
-        <v>2030</v>
+        <v>2060</v>
       </c>
       <c r="G160">
-        <v>0.0638404507</v>
+        <v>4.03807889355</v>
+      </c>
+      <c r="H160">
+        <v>69.20408774093089</v>
       </c>
     </row>
     <row r="161">
@@ -5649,7 +6131,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5659,7 +6141,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5668,10 +6150,13 @@
         </is>
       </c>
       <c r="F161">
-        <v>2035</v>
+        <v>2065</v>
       </c>
       <c r="G161">
-        <v>0.038208015</v>
+        <v>4.51822919208</v>
+      </c>
+      <c r="H161">
+        <v>70.37448718992012</v>
       </c>
     </row>
     <row r="162">
@@ -5682,7 +6167,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5692,7 +6177,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5701,10 +6186,13 @@
         </is>
       </c>
       <c r="F162">
-        <v>2040</v>
+        <v>2070</v>
       </c>
       <c r="G162">
-        <v>0.0267213002</v>
+        <v>4.62383935351</v>
+      </c>
+      <c r="H162">
+        <v>71.38142255945205</v>
       </c>
     </row>
     <row r="163">
@@ -5715,7 +6203,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5725,7 +6213,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5734,10 +6222,13 @@
         </is>
       </c>
       <c r="F163">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="G163">
-        <v>0.00774506175</v>
+        <v>0.051102151603</v>
+      </c>
+      <c r="H163">
+        <v>9.990718082215226</v>
       </c>
     </row>
     <row r="164">
@@ -5748,7 +6239,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5758,7 +6249,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5767,10 +6258,13 @@
         </is>
       </c>
       <c r="F164">
-        <v>2050</v>
+        <v>2025</v>
       </c>
       <c r="G164">
-        <v>3.144595088200001e-005</v>
+        <v>0.129362724743</v>
+      </c>
+      <c r="H164">
+        <v>12.48067473216225</v>
       </c>
     </row>
     <row r="165">
@@ -5781,7 +6275,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5791,7 +6285,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5800,10 +6294,13 @@
         </is>
       </c>
       <c r="F165">
-        <v>2055</v>
+        <v>2030</v>
       </c>
       <c r="G165">
-        <v>7.04994e-006</v>
+        <v>0.263997330343</v>
+      </c>
+      <c r="H165">
+        <v>17.52109896398417</v>
       </c>
     </row>
     <row r="166">
@@ -5814,7 +6311,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5824,7 +6321,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5833,10 +6330,13 @@
         </is>
       </c>
       <c r="F166">
-        <v>2060</v>
+        <v>2035</v>
       </c>
       <c r="G166">
-        <v>2.19279e-006</v>
+        <v>0.469037789743</v>
+      </c>
+      <c r="H166">
+        <v>20.81217499796816</v>
       </c>
     </row>
     <row r="167">
@@ -5847,7 +6347,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5857,7 +6357,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5866,10 +6366,13 @@
         </is>
       </c>
       <c r="F167">
-        <v>2065</v>
+        <v>2040</v>
       </c>
       <c r="G167">
-        <v>2.24004e-007</v>
+        <v>0.63251277714</v>
+      </c>
+      <c r="H167">
+        <v>21.72793920447096</v>
       </c>
     </row>
     <row r="168">
@@ -5880,7 +6383,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5890,7 +6393,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5899,10 +6402,13 @@
         </is>
       </c>
       <c r="F168">
-        <v>1975</v>
+        <v>2045</v>
       </c>
       <c r="G168">
-        <v>0.0026842</v>
+        <v>0.91541467954</v>
+      </c>
+      <c r="H168">
+        <v>23.27759945315194</v>
       </c>
     </row>
     <row r="169">
@@ -5913,7 +6419,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5923,7 +6429,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5932,10 +6438,13 @@
         </is>
       </c>
       <c r="F169">
-        <v>1990</v>
+        <v>2050</v>
       </c>
       <c r="G169">
-        <v>0.005774</v>
+        <v>1.202647144</v>
+      </c>
+      <c r="H169">
+        <v>24.16242548010578</v>
       </c>
     </row>
     <row r="170">
@@ -5946,7 +6455,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5956,7 +6465,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5965,10 +6474,13 @@
         </is>
       </c>
       <c r="F170">
-        <v>2005</v>
+        <v>2055</v>
       </c>
       <c r="G170">
-        <v>0.008197400000000001</v>
+        <v>1.250912471</v>
+      </c>
+      <c r="H170">
+        <v>23.01713084441026</v>
       </c>
     </row>
     <row r="171">
@@ -5979,7 +6491,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5989,7 +6501,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5998,10 +6510,13 @@
         </is>
       </c>
       <c r="F171">
-        <v>2010</v>
+        <v>2060</v>
       </c>
       <c r="G171">
-        <v>0.0148904</v>
+        <v>1.2519896616</v>
+      </c>
+      <c r="H171">
+        <v>21.45644121280018</v>
       </c>
     </row>
     <row r="172">
@@ -6012,7 +6527,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6022,7 +6537,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6031,10 +6546,13 @@
         </is>
       </c>
       <c r="F172">
-        <v>2015</v>
+        <v>2065</v>
       </c>
       <c r="G172">
-        <v>0.013</v>
+        <v>1.2568474202</v>
+      </c>
+      <c r="H172">
+        <v>19.57625187044362</v>
       </c>
     </row>
     <row r="173">
@@ -6045,7 +6563,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6055,7 +6573,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>hydro</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6064,2320 +6582,13 @@
         </is>
       </c>
       <c r="F173">
-        <v>2020</v>
+        <v>2070</v>
       </c>
       <c r="G173">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>hydro</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F174">
-        <v>2025</v>
-      </c>
-      <c r="G174">
-        <v>0.012879</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>hydro</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F175">
-        <v>2030</v>
-      </c>
-      <c r="G175">
-        <v>0.0156788</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>hydro</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F176">
-        <v>2035</v>
-      </c>
-      <c r="G176">
-        <v>0.0167627</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>hydro</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F177">
-        <v>2040</v>
-      </c>
-      <c r="G177">
-        <v>0.0178465</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>hydro</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F178">
-        <v>2045</v>
-      </c>
-      <c r="G178">
-        <v>0.0197557</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>hydro</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F179">
-        <v>2050</v>
-      </c>
-      <c r="G179">
-        <v>0.0216648</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>hydro</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F180">
-        <v>2055</v>
-      </c>
-      <c r="G180">
-        <v>0.0235739</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>hydro</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F181">
-        <v>2060</v>
-      </c>
-      <c r="G181">
-        <v>0.025483</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>hydro</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F182">
-        <v>2065</v>
-      </c>
-      <c r="G182">
-        <v>0.0273921</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>hydro</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F183">
-        <v>2070</v>
-      </c>
-      <c r="G183">
-        <v>0.0293013</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F184">
-        <v>1975</v>
-      </c>
-      <c r="G184">
-        <v>0.000190894</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F185">
-        <v>1990</v>
-      </c>
-      <c r="G185">
-        <v>0.0005975000000000001</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F186">
-        <v>2005</v>
-      </c>
-      <c r="G186">
-        <v>0.00168568</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F187">
-        <v>2010</v>
-      </c>
-      <c r="G187">
-        <v>0.00362113</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F188">
-        <v>2015</v>
-      </c>
-      <c r="G188">
-        <v>0.01011792</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F189">
-        <v>2020</v>
-      </c>
-      <c r="G189">
-        <v>0.01248116</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F190">
-        <v>2025</v>
-      </c>
-      <c r="G190">
-        <v>0.30629419</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F191">
-        <v>2030</v>
-      </c>
-      <c r="G191">
-        <v>0.24371808</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F192">
-        <v>2035</v>
-      </c>
-      <c r="G192">
-        <v>0.24643431</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F193">
-        <v>2040</v>
-      </c>
-      <c r="G193">
-        <v>0.23382395</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F194">
-        <v>2045</v>
-      </c>
-      <c r="G194">
-        <v>0.447064564</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F195">
-        <v>2050</v>
-      </c>
-      <c r="G195">
-        <v>0.467611967</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F196">
-        <v>2055</v>
-      </c>
-      <c r="G196">
-        <v>0.5433241800000001</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F197">
-        <v>2060</v>
-      </c>
-      <c r="G197">
-        <v>0.6863083099999999</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F198">
-        <v>2065</v>
-      </c>
-      <c r="G198">
-        <v>0.71371151</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F199">
-        <v>2070</v>
-      </c>
-      <c r="G199">
-        <v>0.57399983</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F200">
-        <v>1975</v>
-      </c>
-      <c r="G200">
-        <v>0.00271376</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F201">
-        <v>1990</v>
-      </c>
-      <c r="G201">
-        <v>0.0068026</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F202">
-        <v>2005</v>
-      </c>
-      <c r="G202">
-        <v>0.0157346</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F203">
-        <v>2010</v>
-      </c>
-      <c r="G203">
-        <v>0.00715135</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F204">
-        <v>2015</v>
-      </c>
-      <c r="G204">
-        <v>0.010608114</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F205">
-        <v>2020</v>
-      </c>
-      <c r="G205">
-        <v>0.013147435</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F206">
-        <v>2025</v>
-      </c>
-      <c r="G206">
-        <v>0.008669632070000001</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F207">
-        <v>2030</v>
-      </c>
-      <c r="G207">
-        <v>0.0077535665</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F208">
-        <v>2035</v>
-      </c>
-      <c r="G208">
-        <v>0.00581654813</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F209">
-        <v>2040</v>
-      </c>
-      <c r="G209">
-        <v>0.004890247889999999</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F210">
-        <v>2045</v>
-      </c>
-      <c r="G210">
-        <v>0.000741910778</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F211">
-        <v>2050</v>
-      </c>
-      <c r="G211">
-        <v>2.612e-005</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F212">
-        <v>2055</v>
-      </c>
-      <c r="G212">
-        <v>2.57081e-006</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F213">
-        <v>2060</v>
-      </c>
-      <c r="G213">
-        <v>5.51553e-007</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F214">
-        <v>2065</v>
-      </c>
-      <c r="G214">
-        <v>4.16488e-008</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>solar</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F215">
-        <v>2005</v>
-      </c>
-      <c r="G215">
-        <v>1.80009e-006</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>solar</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F216">
-        <v>2010</v>
-      </c>
-      <c r="G216">
-        <v>4.03386e-006</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>solar</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F217">
-        <v>2015</v>
-      </c>
-      <c r="G217">
-        <v>0.007650819779</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>solar</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F218">
-        <v>2020</v>
-      </c>
-      <c r="G218">
-        <v>0.016074069789</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>solar</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F219">
-        <v>2025</v>
-      </c>
-      <c r="G219">
-        <v>0.161884215111</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>solar</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F220">
-        <v>2030</v>
-      </c>
-      <c r="G220">
-        <v>0.443624728469</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>solar</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F221">
-        <v>2035</v>
-      </c>
-      <c r="G221">
-        <v>0.943849861069</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>solar</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F222">
-        <v>2040</v>
-      </c>
-      <c r="G222">
-        <v>1.40472467403</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>solar</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F223">
-        <v>2045</v>
-      </c>
-      <c r="G223">
-        <v>2.23477867776</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>solar</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F224">
-        <v>2050</v>
-      </c>
-      <c r="G224">
-        <v>2.969472731948</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>solar</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F225">
-        <v>2055</v>
-      </c>
-      <c r="G225">
-        <v>3.66035697446</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>solar</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F226">
-        <v>2060</v>
-      </c>
-      <c r="G226">
-        <v>4.46501498183</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>solar</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F227">
-        <v>2065</v>
-      </c>
-      <c r="G227">
-        <v>5.21122046975</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>solar</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F228">
-        <v>2070</v>
-      </c>
-      <c r="G228">
-        <v>5.25285661461</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F229">
-        <v>1990</v>
-      </c>
-      <c r="G229">
-        <v>5.5e-006</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F230">
-        <v>2005</v>
-      </c>
-      <c r="G230">
-        <v>0.00113416</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F231">
-        <v>2010</v>
-      </c>
-      <c r="G231">
-        <v>0.0107877</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F232">
-        <v>2015</v>
-      </c>
-      <c r="G232">
-        <v>0.024972142556</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F233">
-        <v>2020</v>
-      </c>
-      <c r="G233">
-        <v>0.049966076756</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F234">
-        <v>2025</v>
-      </c>
-      <c r="G234">
-        <v>0.129674714716</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F235">
-        <v>2030</v>
-      </c>
-      <c r="G235">
-        <v>0.251585646316</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F236">
-        <v>2035</v>
-      </c>
-      <c r="G236">
-        <v>0.429662242516</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F237">
-        <v>2040</v>
-      </c>
-      <c r="G237">
-        <v>0.56674614996</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F238">
-        <v>2045</v>
-      </c>
-      <c r="G238">
-        <v>0.8578977169600001</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F239">
-        <v>2050</v>
-      </c>
-      <c r="G239">
-        <v>1.1095830706</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F240">
-        <v>2055</v>
-      </c>
-      <c r="G240">
-        <v>1.247143357</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F241">
-        <v>2060</v>
-      </c>
-      <c r="G241">
-        <v>1.2599396928</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F242">
-        <v>2065</v>
-      </c>
-      <c r="G242">
-        <v>1.2620794408</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>ElecRail_ElecShwt_NZ70</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="F243">
-        <v>2070</v>
-      </c>
-      <c r="G243">
-        <v>1.2412079736</v>
+        <v>1.2436726362</v>
+      </c>
+      <c r="H173">
+        <v>19.19943907714481</v>
       </c>
     </row>
   </sheetData>

--- a/elec_gen.xlsx
+++ b/elec_gen.xlsx
@@ -429,10 +429,10 @@
         <v>2020</v>
       </c>
       <c r="G2">
-        <v>0.0006270020057</v>
+        <v>0.000536876965</v>
       </c>
       <c r="H2">
-        <v>0.1237425971757967</v>
+        <v>0.1232457972355465</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>2025</v>
       </c>
       <c r="G3">
-        <v>0.01554267013591</v>
+        <v>0.00674179038298</v>
       </c>
       <c r="H3">
-        <v>1.499330512210301</v>
+        <v>0.6610668498178561</v>
       </c>
     </row>
     <row r="4">
@@ -501,10 +501,10 @@
         <v>2030</v>
       </c>
       <c r="G4">
-        <v>0.01521260577862</v>
+        <v>0.00803336871917</v>
       </c>
       <c r="H4">
-        <v>1.001435095963302</v>
+        <v>0.4898303472435406</v>
       </c>
     </row>
     <row r="5">
@@ -537,10 +537,10 @@
         <v>2035</v>
       </c>
       <c r="G5">
-        <v>0.013393409241967</v>
+        <v>0.009719363906168999</v>
       </c>
       <c r="H5">
-        <v>0.6237030745583184</v>
+        <v>0.4256925727011913</v>
       </c>
     </row>
     <row r="6">
@@ -573,10 +573,10 @@
         <v>2040</v>
       </c>
       <c r="G6">
-        <v>0.012576103787453</v>
+        <v>0.01100342549475</v>
       </c>
       <c r="H6">
-        <v>0.4606239614030691</v>
+        <v>0.3818344676702147</v>
       </c>
     </row>
     <row r="7">
@@ -609,10 +609,10 @@
         <v>2045</v>
       </c>
       <c r="G7">
-        <v>0.014695353590786</v>
+        <v>0.014161270397605</v>
       </c>
       <c r="H7">
-        <v>0.4413990876531553</v>
+        <v>0.4096100238444981</v>
       </c>
     </row>
     <row r="8">
@@ -645,10 +645,10 @@
         <v>2050</v>
       </c>
       <c r="G8">
-        <v>0.016748906028982</v>
+        <v>0.017943703845294</v>
       </c>
       <c r="H8">
-        <v>0.4369419324112752</v>
+        <v>0.4675040399822013</v>
       </c>
     </row>
     <row r="9">
@@ -681,10 +681,10 @@
         <v>2055</v>
       </c>
       <c r="G9">
-        <v>0.0207175243</v>
+        <v>0.02256007406</v>
       </c>
       <c r="H9">
-        <v>0.4924321374317089</v>
+        <v>0.5556781374293716</v>
       </c>
     </row>
     <row r="10">
@@ -717,10 +717,10 @@
         <v>2060</v>
       </c>
       <c r="G10">
-        <v>0.02184171796</v>
+        <v>0.0230757781</v>
       </c>
       <c r="H10">
-        <v>0.5099449224734481</v>
+        <v>0.5574199699653024</v>
       </c>
     </row>
     <row r="11">
@@ -753,10 +753,10 @@
         <v>2065</v>
       </c>
       <c r="G11">
-        <v>0.0221869451</v>
+        <v>0.0237541041</v>
       </c>
       <c r="H11">
-        <v>0.5104688451478595</v>
+        <v>0.5679840521971451</v>
       </c>
     </row>
     <row r="12">
@@ -789,10 +789,10 @@
         <v>2070</v>
       </c>
       <c r="G12">
-        <v>0.0166009838</v>
+        <v>0.0259575475</v>
       </c>
       <c r="H12">
-        <v>0.3918247788755747</v>
+        <v>0.6152429094930485</v>
       </c>
     </row>
     <row r="13">
@@ -825,10 +825,10 @@
         <v>2020</v>
       </c>
       <c r="G13">
-        <v>0.284895765</v>
+        <v>0.270192252</v>
       </c>
       <c r="H13">
-        <v>56.22588375315853</v>
+        <v>62.02549499326665</v>
       </c>
     </row>
     <row r="14">
@@ -861,10 +861,10 @@
         <v>2025</v>
       </c>
       <c r="G14">
-        <v>0.324065163</v>
+        <v>0.341060683</v>
       </c>
       <c r="H14">
-        <v>31.26108851192299</v>
+        <v>33.44273531208145</v>
       </c>
     </row>
     <row r="15">
@@ -897,10 +897,10 @@
         <v>2030</v>
       </c>
       <c r="G15">
-        <v>0.40261637</v>
+        <v>0.447540857</v>
       </c>
       <c r="H15">
-        <v>26.50395132791784</v>
+        <v>27.28856362174189</v>
       </c>
     </row>
     <row r="16">
@@ -933,10 +933,10 @@
         <v>2035</v>
       </c>
       <c r="G16">
-        <v>0.459243911</v>
+        <v>0.530539336</v>
       </c>
       <c r="H16">
-        <v>21.38602906012752</v>
+        <v>23.2367732128719</v>
       </c>
     </row>
     <row r="17">
@@ -969,10 +969,10 @@
         <v>2040</v>
       </c>
       <c r="G17">
-        <v>0.509810272</v>
+        <v>0.6021416030000001</v>
       </c>
       <c r="H17">
-        <v>18.67278061802444</v>
+        <v>20.89516746883</v>
       </c>
     </row>
     <row r="18">
@@ -1005,10 +1005,10 @@
         <v>2045</v>
       </c>
       <c r="G18">
-        <v>0.570881032</v>
+        <v>0.6787511470000001</v>
       </c>
       <c r="H18">
-        <v>17.14734967937671</v>
+        <v>19.63265058155875</v>
       </c>
     </row>
     <row r="19">
@@ -1041,10 +1041,10 @@
         <v>2050</v>
       </c>
       <c r="G19">
-        <v>0.644359542</v>
+        <v>0.764274161</v>
       </c>
       <c r="H19">
-        <v>16.80991600059964</v>
+        <v>19.91234702723958</v>
       </c>
     </row>
     <row r="20">
@@ -1077,10 +1077,10 @@
         <v>2055</v>
       </c>
       <c r="G20">
-        <v>0.722932834</v>
+        <v>0.856981042</v>
       </c>
       <c r="H20">
-        <v>17.18329639734912</v>
+        <v>21.10833625653631</v>
       </c>
     </row>
     <row r="21">
@@ -1113,10 +1113,10 @@
         <v>2060</v>
       </c>
       <c r="G21">
-        <v>0.681213761</v>
+        <v>0.8792057680000001</v>
       </c>
       <c r="H21">
-        <v>15.90449520395652</v>
+        <v>21.23815069932054</v>
       </c>
     </row>
     <row r="22">
@@ -1149,10 +1149,10 @@
         <v>2065</v>
       </c>
       <c r="G22">
-        <v>0.7792039</v>
+        <v>0.9865512000000001</v>
       </c>
       <c r="H22">
-        <v>17.92762875533091</v>
+        <v>23.58941199874409</v>
       </c>
     </row>
     <row r="23">
@@ -1185,10 +1185,10 @@
         <v>2070</v>
       </c>
       <c r="G23">
-        <v>0.8057624</v>
+        <v>1.0118888</v>
       </c>
       <c r="H23">
-        <v>19.01800989687445</v>
+        <v>23.98367601544134</v>
       </c>
     </row>
     <row r="24">
@@ -1221,10 +1221,10 @@
         <v>2020</v>
       </c>
       <c r="G24">
-        <v>0.11350709</v>
+        <v>0.07111592</v>
       </c>
       <c r="H24">
-        <v>22.4013033240396</v>
+        <v>16.32541313546456</v>
       </c>
     </row>
     <row r="25">
@@ -1257,10 +1257,10 @@
         <v>2025</v>
       </c>
       <c r="G25">
-        <v>0.08278290000000001</v>
+        <v>0.03700411</v>
       </c>
       <c r="H25">
-        <v>7.985688866450818</v>
+        <v>3.628441265360237</v>
       </c>
     </row>
     <row r="26">
@@ -1293,10 +1293,10 @@
         <v>2030</v>
       </c>
       <c r="G26">
-        <v>0.06409830130000001</v>
+        <v>0.01931571870000001</v>
       </c>
       <c r="H26">
-        <v>4.219545911303639</v>
+        <v>1.177765583633898</v>
       </c>
     </row>
     <row r="27">
@@ -1329,10 +1329,10 @@
         <v>2035</v>
       </c>
       <c r="G27">
-        <v>0.0453270294</v>
+        <v>0.003362390350000001</v>
       </c>
       <c r="H27">
-        <v>2.110785020201726</v>
+        <v>0.1472673121755085</v>
       </c>
     </row>
     <row r="28">
@@ -1365,10 +1365,10 @@
         <v>2040</v>
       </c>
       <c r="G28">
-        <v>0.0325140826</v>
+        <v>-0.009367241820000004</v>
       </c>
       <c r="H28">
-        <v>1.190890738635658</v>
+        <v>-0.3250565740263722</v>
       </c>
     </row>
     <row r="29">
@@ -1401,10 +1401,10 @@
         <v>2045</v>
       </c>
       <c r="G29">
-        <v>0.0257850459</v>
+        <v>-0.01635234486</v>
       </c>
       <c r="H29">
-        <v>0.7744962150819522</v>
+        <v>-0.4729861220043405</v>
       </c>
     </row>
     <row r="30">
@@ -1437,10 +1437,10 @@
         <v>2050</v>
       </c>
       <c r="G30">
-        <v>0.0176926798</v>
+        <v>-0.02448121302</v>
       </c>
       <c r="H30">
-        <v>0.4615629037483952</v>
+        <v>-0.6378318595308573</v>
       </c>
     </row>
     <row r="31">
@@ -1473,10 +1473,10 @@
         <v>2055</v>
       </c>
       <c r="G31">
-        <v>0.0033172159</v>
+        <v>-0.03928824071</v>
       </c>
       <c r="H31">
-        <v>0.0788464727882303</v>
+        <v>-0.9677103170205468</v>
       </c>
     </row>
     <row r="32">
@@ -1509,10 +1509,10 @@
         <v>2060</v>
       </c>
       <c r="G32">
-        <v>0.0034252112</v>
+        <v>-0.03933930989</v>
       </c>
       <c r="H32">
-        <v>0.07996939906640868</v>
+        <v>-0.9502828828701349</v>
       </c>
     </row>
     <row r="33">
@@ -1545,10 +1545,10 @@
         <v>2065</v>
       </c>
       <c r="G33">
-        <v>0.0030826226</v>
+        <v>-0.03954874286</v>
       </c>
       <c r="H33">
-        <v>0.07092381540389227</v>
+        <v>-0.9456494395394061</v>
       </c>
     </row>
     <row r="34">
@@ -1581,10 +1581,10 @@
         <v>2070</v>
       </c>
       <c r="G34">
-        <v>0.0025660888</v>
+        <v>-0.03946532284</v>
       </c>
       <c r="H34">
-        <v>0.06056611998109949</v>
+        <v>-0.9354027012052681</v>
       </c>
     </row>
     <row r="35">
@@ -1620,7 +1620,7 @@
         <v>0.016</v>
       </c>
       <c r="H35">
-        <v>3.157695727946453</v>
+        <v>3.672969570912294</v>
       </c>
     </row>
     <row r="36">
@@ -1656,7 +1656,7 @@
         <v>0.012879</v>
       </c>
       <c r="H36">
-        <v>1.242378400744841</v>
+        <v>1.262851479378223</v>
       </c>
     </row>
     <row r="37">
@@ -1692,7 +1692,7 @@
         <v>0.0156788</v>
       </c>
       <c r="H37">
-        <v>1.032124332351807</v>
+        <v>0.9560064173371476</v>
       </c>
     </row>
     <row r="38">
@@ -1728,7 +1728,7 @@
         <v>0.0167627</v>
       </c>
       <c r="H38">
-        <v>0.7806039029360142</v>
+        <v>0.734179413108414</v>
       </c>
     </row>
     <row r="39">
@@ -1764,7 +1764,7 @@
         <v>0.0178465</v>
       </c>
       <c r="H39">
-        <v>0.6536623477440903</v>
+        <v>0.619298856572238</v>
       </c>
     </row>
     <row r="40">
@@ -1800,7 +1800,7 @@
         <v>0.0197557</v>
       </c>
       <c r="H40">
-        <v>0.5933949055446329</v>
+        <v>0.5714270345006136</v>
       </c>
     </row>
     <row r="41">
@@ -1836,7 +1836,7 @@
         <v>0.0216648</v>
       </c>
       <c r="H41">
-        <v>0.5651867388188551</v>
+        <v>0.5644532261973725</v>
       </c>
     </row>
     <row r="42">
@@ -1872,7 +1872,7 @@
         <v>0.0235739</v>
       </c>
       <c r="H42">
-        <v>0.5603249595127234</v>
+        <v>0.5806497269958991</v>
       </c>
     </row>
     <row r="43">
@@ -1908,7 +1908,7 @@
         <v>0.025483</v>
       </c>
       <c r="H43">
-        <v>0.5949589900936015</v>
+        <v>0.6155689759655733</v>
       </c>
     </row>
     <row r="44">
@@ -1944,7 +1944,7 @@
         <v>0.0273921</v>
       </c>
       <c r="H44">
-        <v>0.630227081292714</v>
+        <v>0.654972121478133</v>
       </c>
     </row>
     <row r="45">
@@ -1980,7 +1980,7 @@
         <v>0.0293013</v>
       </c>
       <c r="H45">
-        <v>0.6915840369211659</v>
+        <v>0.6944961600832535</v>
       </c>
     </row>
     <row r="46">
@@ -2013,10 +2013,10 @@
         <v>2020</v>
       </c>
       <c r="G46">
-        <v>0.01248116</v>
+        <v>0.012242852</v>
       </c>
       <c r="H46">
-        <v>2.463231600738509</v>
+        <v>2.81047642857392</v>
       </c>
     </row>
     <row r="47">
@@ -2049,10 +2049,10 @@
         <v>2025</v>
       </c>
       <c r="G47">
-        <v>0.30337969</v>
+        <v>0.242972049</v>
       </c>
       <c r="H47">
-        <v>29.26565525900035</v>
+        <v>23.82464566559578</v>
       </c>
     </row>
     <row r="48">
@@ -2085,10 +2085,10 @@
         <v>2030</v>
       </c>
       <c r="G48">
-        <v>0.27037899</v>
+        <v>0.211930838</v>
       </c>
       <c r="H48">
-        <v>17.79885798247991</v>
+        <v>12.9223691328188</v>
       </c>
     </row>
     <row r="49">
@@ -2121,10 +2121,10 @@
         <v>2035</v>
       </c>
       <c r="G49">
-        <v>0.23294644</v>
+        <v>0.213886841</v>
       </c>
       <c r="H49">
-        <v>10.84782882465534</v>
+        <v>9.367901077809222</v>
       </c>
     </row>
     <row r="50">
@@ -2157,10 +2157,10 @@
         <v>2040</v>
       </c>
       <c r="G50">
-        <v>0.22222178</v>
+        <v>0.221681706</v>
       </c>
       <c r="H50">
-        <v>8.139299606907278</v>
+        <v>7.692669545781135</v>
       </c>
     </row>
     <row r="51">
@@ -2193,10 +2193,10 @@
         <v>2045</v>
       </c>
       <c r="G51">
-        <v>0.245083648</v>
+        <v>0.253378551</v>
       </c>
       <c r="H51">
-        <v>7.361490008225173</v>
+        <v>7.328890092681732</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         <v>2050</v>
       </c>
       <c r="G52">
-        <v>0.274644273</v>
+        <v>0.29703932</v>
       </c>
       <c r="H52">
-        <v>7.164861941589367</v>
+        <v>7.739042247400101</v>
       </c>
     </row>
     <row r="53">
@@ -2265,10 +2265,10 @@
         <v>2055</v>
       </c>
       <c r="G53">
-        <v>0.32326528</v>
+        <v>0.351054814</v>
       </c>
       <c r="H53">
-        <v>7.683650347539831</v>
+        <v>8.646845957168569</v>
       </c>
     </row>
     <row r="54">
@@ -2301,10 +2301,10 @@
         <v>2060</v>
       </c>
       <c r="G54">
-        <v>0.33465496</v>
+        <v>0.34956513</v>
       </c>
       <c r="H54">
-        <v>7.813286388235867</v>
+        <v>8.444117612030471</v>
       </c>
     </row>
     <row r="55">
@@ -2337,10 +2337,10 @@
         <v>2065</v>
       </c>
       <c r="G55">
-        <v>0.30522133</v>
+        <v>0.323482</v>
       </c>
       <c r="H55">
-        <v>7.022416972564365</v>
+        <v>7.734773595306289</v>
       </c>
     </row>
     <row r="56">
@@ -2373,10 +2373,10 @@
         <v>2070</v>
       </c>
       <c r="G56">
-        <v>0.261317</v>
+        <v>0.32677876</v>
       </c>
       <c r="H56">
-        <v>6.167735417067786</v>
+        <v>7.745273896269691</v>
       </c>
     </row>
     <row r="57">
@@ -2409,10 +2409,10 @@
         <v>2020</v>
       </c>
       <c r="G57">
-        <v>0.013147435</v>
+        <v>0.0106937818</v>
       </c>
       <c r="H57">
-        <v>2.594724958309604</v>
+        <v>2.454870946835981</v>
       </c>
     </row>
     <row r="58">
@@ -2445,10 +2445,10 @@
         <v>2025</v>
       </c>
       <c r="G58">
-        <v>0.008668415949999999</v>
+        <v>0.0065555039</v>
       </c>
       <c r="H58">
-        <v>0.8362025580364989</v>
+        <v>0.6428005123211981</v>
       </c>
     </row>
     <row r="59">
@@ -2481,10 +2481,10 @@
         <v>2030</v>
       </c>
       <c r="G59">
-        <v>0.00776703149</v>
+        <v>0.00584687571</v>
       </c>
       <c r="H59">
-        <v>0.5112981982659205</v>
+        <v>0.3565101092004931</v>
       </c>
     </row>
     <row r="60">
@@ -2517,10 +2517,10 @@
         <v>2035</v>
       </c>
       <c r="G60">
-        <v>0.00653073472</v>
+        <v>0.00514574918</v>
       </c>
       <c r="H60">
-        <v>0.3041226658874608</v>
+        <v>0.2253755727284688</v>
       </c>
     </row>
     <row r="61">
@@ -2553,10 +2553,10 @@
         <v>2040</v>
       </c>
       <c r="G61">
-        <v>0.00565312203</v>
+        <v>0.00448114282</v>
       </c>
       <c r="H61">
-        <v>0.2070564546669452</v>
+        <v>0.1555020101735855</v>
       </c>
     </row>
     <row r="62">
@@ -2589,10 +2589,10 @@
         <v>2045</v>
       </c>
       <c r="G62">
-        <v>0.00553461663</v>
+        <v>0.00437256663</v>
       </c>
       <c r="H62">
-        <v>0.1662413031370493</v>
+        <v>0.1264750316383242</v>
       </c>
     </row>
     <row r="63">
@@ -2625,10 +2625,10 @@
         <v>2050</v>
       </c>
       <c r="G63">
-        <v>0.00511167731</v>
+        <v>0.004040271339999999</v>
       </c>
       <c r="H63">
-        <v>0.1333523609141666</v>
+        <v>0.1052649547919104</v>
       </c>
     </row>
     <row r="64">
@@ -2661,10 +2661,10 @@
         <v>2055</v>
       </c>
       <c r="G64">
-        <v>0.00531869359</v>
+        <v>0.00415524025</v>
       </c>
       <c r="H64">
-        <v>0.1264193353869038</v>
+        <v>0.1023478981740345</v>
       </c>
     </row>
     <row r="65">
@@ -2697,10 +2697,10 @@
         <v>2060</v>
       </c>
       <c r="G65">
-        <v>0.00200868067</v>
+        <v>0.00198818653</v>
       </c>
       <c r="H65">
-        <v>0.04689725004292034</v>
+        <v>0.04802676083273737</v>
       </c>
     </row>
     <row r="66">
@@ -2733,10 +2733,10 @@
         <v>2065</v>
       </c>
       <c r="G66">
-        <v>0.00082657333</v>
+        <v>0.00069434022</v>
       </c>
       <c r="H66">
-        <v>0.01901748669288953</v>
+        <v>0.01660235932699551</v>
       </c>
     </row>
     <row r="67">
@@ -2769,10 +2769,10 @@
         <v>2070</v>
       </c>
       <c r="G67">
-        <v>0.00077683435</v>
+        <v>0.00058990702</v>
       </c>
       <c r="H67">
-        <v>0.01833523549439888</v>
+        <v>0.01398191070690226</v>
       </c>
     </row>
     <row r="68">
@@ -2805,10 +2805,10 @@
         <v>2020</v>
       </c>
       <c r="G68">
-        <v>0.016074069789</v>
+        <v>0.013461402901</v>
       </c>
       <c r="H68">
-        <v>3.172313843964902</v>
+        <v>3.090207702322717</v>
       </c>
     </row>
     <row r="69">
@@ -2841,10 +2841,10 @@
         <v>2025</v>
       </c>
       <c r="G69">
-        <v>0.160438287914</v>
+        <v>0.218928632379</v>
       </c>
       <c r="H69">
-        <v>15.47675002382449</v>
+        <v>21.46706633108714</v>
       </c>
     </row>
     <row r="70">
@@ -2877,10 +2877,10 @@
         <v>2030</v>
       </c>
       <c r="G70">
-        <v>0.47732524381</v>
+        <v>0.6091428033590001</v>
       </c>
       <c r="H70">
-        <v>31.42198373485598</v>
+        <v>37.14215559136824</v>
       </c>
     </row>
     <row r="71">
@@ -2913,10 +2913,10 @@
         <v>2035</v>
       </c>
       <c r="G71">
-        <v>0.94183292328</v>
+        <v>1.031038217684</v>
       </c>
       <c r="H71">
-        <v>43.85919069278837</v>
+        <v>45.15782263904886</v>
       </c>
     </row>
     <row r="72">
@@ -2949,10 +2949,10 @@
         <v>2040</v>
       </c>
       <c r="G72">
-        <v>1.371838686521</v>
+        <v>1.435423910043</v>
       </c>
       <c r="H72">
-        <v>50.246227358725</v>
+        <v>49.81124512851712</v>
       </c>
     </row>
     <row r="73">
@@ -2985,10 +2985,10 @@
         <v>2045</v>
       </c>
       <c r="G73">
-        <v>1.763792354161</v>
+        <v>1.792424760653</v>
       </c>
       <c r="H73">
-        <v>52.97840103857177</v>
+        <v>51.84528847600519</v>
       </c>
     </row>
     <row r="74">
@@ -3021,10 +3021,10 @@
         <v>2050</v>
       </c>
       <c r="G74">
-        <v>2.076238214876</v>
+        <v>2.002767889485</v>
       </c>
       <c r="H74">
-        <v>54.16446520054871</v>
+        <v>52.17997842326312</v>
       </c>
     </row>
     <row r="75">
@@ -3057,10 +3057,10 @@
         <v>2055</v>
       </c>
       <c r="G75">
-        <v>2.26740760191</v>
+        <v>2.072716958665</v>
       </c>
       <c r="H75">
-        <v>53.89371604779277</v>
+        <v>51.05317898984056</v>
       </c>
     </row>
     <row r="76">
@@ -3093,10 +3093,10 @@
         <v>2060</v>
       </c>
       <c r="G76">
-        <v>2.32998876273</v>
+        <v>2.10249033456</v>
       </c>
       <c r="H76">
-        <v>54.3989232509234</v>
+        <v>50.78789083791605</v>
       </c>
     </row>
     <row r="77">
@@ -3129,10 +3129,10 @@
         <v>2065</v>
       </c>
       <c r="G77">
-        <v>2.30575498921</v>
+        <v>2.05553895163</v>
       </c>
       <c r="H77">
-        <v>53.04993910747739</v>
+        <v>49.14996323502172</v>
       </c>
     </row>
     <row r="78">
@@ -3165,10 +3165,10 @@
         <v>2070</v>
       </c>
       <c r="G78">
-        <v>2.2314450154</v>
+        <v>2.04713384776</v>
       </c>
       <c r="H78">
-        <v>52.6676888710721</v>
+        <v>48.52093922268896</v>
       </c>
     </row>
     <row r="79">
@@ -3201,10 +3201,10 @@
         <v>2020</v>
       </c>
       <c r="G79">
-        <v>0.049966076756</v>
+        <v>0.041371740188</v>
       </c>
       <c r="H79">
-        <v>9.861104194666609</v>
+        <v>9.497321425388329</v>
       </c>
     </row>
     <row r="80">
@@ -3237,10 +3237,10 @@
         <v>2025</v>
       </c>
       <c r="G80">
-        <v>0.128884560916</v>
+        <v>0.153693121688</v>
       </c>
       <c r="H80">
-        <v>12.4329058678097</v>
+        <v>15.07039258435811</v>
       </c>
     </row>
     <row r="81">
@@ -3273,10 +3273,10 @@
         <v>2030</v>
       </c>
       <c r="G81">
-        <v>0.266003209116</v>
+        <v>0.322541570488</v>
       </c>
       <c r="H81">
-        <v>17.5108034168616</v>
+        <v>19.66679919665599</v>
       </c>
     </row>
     <row r="82">
@@ -3309,10 +3309,10 @@
         <v>2035</v>
       </c>
       <c r="G82">
-        <v>0.431364362516</v>
+        <v>0.472733911488</v>
       </c>
       <c r="H82">
-        <v>20.08773675884525</v>
+        <v>20.70498819955644</v>
       </c>
     </row>
     <row r="83">
@@ -3345,10 +3345,10 @@
         <v>2040</v>
       </c>
       <c r="G83">
-        <v>0.5577716687600001</v>
+        <v>0.5985155733000001</v>
       </c>
       <c r="H83">
-        <v>20.42945891389352</v>
+        <v>20.76933909648209</v>
       </c>
     </row>
     <row r="84">
@@ -3381,10 +3381,10 @@
         <v>2045</v>
       </c>
       <c r="G84">
-        <v>0.68373911996</v>
+        <v>0.7107651479</v>
       </c>
       <c r="H84">
-        <v>20.53722776240956</v>
+        <v>20.55864488177524</v>
       </c>
     </row>
     <row r="85">
@@ -3417,10 +3417,10 @@
         <v>2050</v>
       </c>
       <c r="G85">
-        <v>0.776750864</v>
+        <v>0.7549433204</v>
       </c>
       <c r="H85">
-        <v>20.2637129213696</v>
+        <v>19.66924194065658</v>
       </c>
     </row>
     <row r="86">
@@ -3453,10 +3453,10 @@
         <v>2055</v>
       </c>
       <c r="G86">
-        <v>0.8406505854</v>
+        <v>0.7681637324</v>
       </c>
       <c r="H86">
-        <v>19.98131430219871</v>
+        <v>18.9206733508758</v>
       </c>
     </row>
     <row r="87">
@@ -3489,10 +3489,10 @@
         <v>2060</v>
       </c>
       <c r="G87">
-        <v>0.8845362622</v>
+        <v>0.7972784026000001</v>
       </c>
       <c r="H87">
-        <v>20.65152459520783</v>
+        <v>19.25910802683946</v>
       </c>
     </row>
     <row r="88">
@@ -3525,10 +3525,10 @@
         <v>2065</v>
       </c>
       <c r="G88">
-        <v>0.9027172811999999</v>
+        <v>0.8043140514</v>
       </c>
       <c r="H88">
-        <v>20.76937793608997</v>
+        <v>19.23194207746504</v>
       </c>
     </row>
     <row r="89">
@@ -3561,10 +3561,10 @@
         <v>2070</v>
       </c>
       <c r="G89">
-        <v>0.8890690604</v>
+        <v>0.816888164</v>
       </c>
       <c r="H89">
-        <v>20.98425564371341</v>
+        <v>19.36179258652207</v>
       </c>
     </row>
     <row r="90">
@@ -3597,10 +3597,10 @@
         <v>2020</v>
       </c>
       <c r="G90">
-        <v>0.0006416429963</v>
+        <v>0.000536876965</v>
       </c>
       <c r="H90">
-        <v>0.1254443127025758</v>
+        <v>0.1232457972355465</v>
       </c>
     </row>
     <row r="91">
@@ -3633,10 +3633,10 @@
         <v>2025</v>
       </c>
       <c r="G91">
-        <v>0.01543157024556</v>
+        <v>0.00668452749099</v>
       </c>
       <c r="H91">
-        <v>1.488809154445157</v>
+        <v>0.6594213667549517</v>
       </c>
     </row>
     <row r="92">
@@ -3669,10 +3669,10 @@
         <v>2030</v>
       </c>
       <c r="G92">
-        <v>0.01499168909034</v>
+        <v>0.00795312762937</v>
       </c>
       <c r="H92">
-        <v>0.9949754713347001</v>
+        <v>0.489410057674546</v>
       </c>
     </row>
     <row r="93">
@@ -3705,10 +3705,10 @@
         <v>2035</v>
       </c>
       <c r="G93">
-        <v>0.016729841330065</v>
+        <v>0.012665282651101</v>
       </c>
       <c r="H93">
-        <v>0.7423375963807392</v>
+        <v>0.5205800693386614</v>
       </c>
     </row>
     <row r="94">
@@ -3741,10 +3741,10 @@
         <v>2040</v>
       </c>
       <c r="G94">
-        <v>0.014935828335734</v>
+        <v>0.014283592257115</v>
       </c>
       <c r="H94">
-        <v>0.5130722758117706</v>
+        <v>0.4554339124505674</v>
       </c>
     </row>
     <row r="95">
@@ -3777,10 +3777,10 @@
         <v>2045</v>
       </c>
       <c r="G95">
-        <v>0.006584848736</v>
+        <v>0.006491336137</v>
       </c>
       <c r="H95">
-        <v>0.1674426626119056</v>
+        <v>0.1564339061703002</v>
       </c>
     </row>
     <row r="96">
@@ -3813,10 +3813,10 @@
         <v>2050</v>
       </c>
       <c r="G96">
-        <v>0.00157200473792</v>
+        <v>0.0007774193411210001</v>
       </c>
       <c r="H96">
-        <v>0.03158320170954916</v>
+        <v>0.01589225806939368</v>
       </c>
     </row>
     <row r="97">
@@ -3849,10 +3849,10 @@
         <v>2055</v>
       </c>
       <c r="G97">
-        <v>3.085661e-006</v>
+        <v>2.308938e-006</v>
       </c>
       <c r="H97">
-        <v>5.677700448674624e-005</v>
+        <v>4.423132102228994e-005</v>
       </c>
     </row>
     <row r="98">
@@ -3885,10 +3885,10 @@
         <v>2060</v>
       </c>
       <c r="G98">
-        <v>2.763695e-007</v>
+        <v>1.871353e-007</v>
       </c>
       <c r="H98">
-        <v>4.736385700008706e-006</v>
+        <v>3.358542126961499e-006</v>
       </c>
     </row>
     <row r="99">
@@ -3921,10 +3921,10 @@
         <v>2065</v>
       </c>
       <c r="G99">
-        <v>2.577058e-008</v>
+        <v>1.328766e-008</v>
       </c>
       <c r="H99">
-        <v>4.013942797027327e-007</v>
+        <v>2.167539150729204e-007</v>
       </c>
     </row>
     <row r="100">
@@ -3957,10 +3957,10 @@
         <v>2020</v>
       </c>
       <c r="G100">
-        <v>0.28774495</v>
+        <v>0.270192252</v>
       </c>
       <c r="H100">
-        <v>56.25553102664956</v>
+        <v>62.02549499326665</v>
       </c>
     </row>
     <row r="101">
@@ -3993,10 +3993,10 @@
         <v>2025</v>
       </c>
       <c r="G101">
-        <v>0.326445137</v>
+        <v>0.340251183</v>
       </c>
       <c r="H101">
-        <v>31.49481878096887</v>
+        <v>33.56540913868236</v>
       </c>
     </row>
     <row r="102">
@@ -4029,10 +4029,10 @@
         <v>2030</v>
       </c>
       <c r="G102">
-        <v>0.403235236</v>
+        <v>0.445196959</v>
       </c>
       <c r="H102">
-        <v>26.76210576274431</v>
+        <v>27.39599809464921</v>
       </c>
     </row>
     <row r="103">
@@ -4065,10 +4065,10 @@
         <v>2035</v>
       </c>
       <c r="G103">
-        <v>0.381242071</v>
+        <v>0.423369644</v>
       </c>
       <c r="H103">
-        <v>16.91649771458147</v>
+        <v>17.40172759667903</v>
       </c>
     </row>
     <row r="104">
@@ -4101,10 +4101,10 @@
         <v>2040</v>
       </c>
       <c r="G104">
-        <v>0.361533718</v>
+        <v>0.403827153</v>
       </c>
       <c r="H104">
-        <v>12.41932642149874</v>
+        <v>12.876073254818</v>
       </c>
     </row>
     <row r="105">
@@ -4137,10 +4137,10 @@
         <v>2045</v>
       </c>
       <c r="G105">
-        <v>0.1403376567</v>
+        <v>0.1268764594</v>
       </c>
       <c r="H105">
-        <v>3.568572619458198</v>
+        <v>3.057580092312434</v>
       </c>
     </row>
     <row r="106">
@@ -4173,10 +4173,10 @@
         <v>2050</v>
       </c>
       <c r="G106">
-        <v>0.007178343357354</v>
+        <v>0.0022035441986</v>
       </c>
       <c r="H106">
-        <v>0.1442203453506712</v>
+        <v>0.04504556449672373</v>
       </c>
     </row>
     <row r="107">
@@ -4209,10 +4209,10 @@
         <v>2055</v>
       </c>
       <c r="G107">
-        <v>3.05032e-006</v>
+        <v>2.008922e-006</v>
       </c>
       <c r="H107">
-        <v>5.612672044207442e-005</v>
+        <v>3.848404499849747e-005</v>
       </c>
     </row>
     <row r="108">
@@ -4245,10 +4245,10 @@
         <v>2060</v>
       </c>
       <c r="G108">
-        <v>2.134723e-007</v>
+        <v>1.428406e-007</v>
       </c>
       <c r="H108">
-        <v>3.658461404272065e-006</v>
+        <v>2.563579252767686e-006</v>
       </c>
     </row>
     <row r="109">
@@ -4281,10 +4281,10 @@
         <v>2065</v>
       </c>
       <c r="G109">
-        <v>1.853507e-008</v>
+        <v>9.580369999999999e-009</v>
       </c>
       <c r="H109">
-        <v>2.886962991088959e-007</v>
+        <v>1.562790367413942e-007</v>
       </c>
     </row>
     <row r="110">
@@ -4317,10 +4317,10 @@
         <v>2020</v>
       </c>
       <c r="G110">
-        <v>0.11350732</v>
+        <v>0.07111592</v>
       </c>
       <c r="H110">
-        <v>22.19123067845966</v>
+        <v>16.32541313546456</v>
       </c>
     </row>
     <row r="111">
@@ -4353,10 +4353,10 @@
         <v>2025</v>
       </c>
       <c r="G111">
-        <v>0.08276036000000001</v>
+        <v>0.036991</v>
       </c>
       <c r="H111">
-        <v>7.98456538333345</v>
+        <v>3.649121917818575</v>
       </c>
     </row>
     <row r="112">
@@ -4389,10 +4389,10 @@
         <v>2030</v>
       </c>
       <c r="G112">
-        <v>0.0640752025</v>
+        <v>0.019317633</v>
       </c>
       <c r="H112">
-        <v>4.252573170649844</v>
+        <v>1.18874539945169</v>
       </c>
     </row>
     <row r="113">
@@ -4425,10 +4425,10 @@
         <v>2035</v>
       </c>
       <c r="G113">
-        <v>0.0383372405</v>
+        <v>-0.003957104500000003</v>
       </c>
       <c r="H113">
-        <v>1.701102503195693</v>
+        <v>-0.162648540244876</v>
       </c>
     </row>
     <row r="114">
@@ -4461,10 +4461,10 @@
         <v>2040</v>
       </c>
       <c r="G114">
-        <v>0.0269287837</v>
+        <v>-0.01479886216</v>
       </c>
       <c r="H114">
-        <v>0.925051629359325</v>
+        <v>-0.4718633500608467</v>
       </c>
     </row>
     <row r="115">
@@ -4497,10 +4497,10 @@
         <v>2045</v>
       </c>
       <c r="G115">
-        <v>0.01212111136</v>
+        <v>0.01149666239</v>
       </c>
       <c r="H115">
-        <v>0.3082213793063834</v>
+        <v>0.2770566440609635</v>
       </c>
     </row>
     <row r="116">
@@ -4533,10 +4533,10 @@
         <v>2050</v>
       </c>
       <c r="G116">
-        <v>8.7724061624e-005</v>
+        <v>5.626751249600001e-005</v>
       </c>
       <c r="H116">
-        <v>0.001762467164518629</v>
+        <v>0.001150238722154568</v>
       </c>
     </row>
     <row r="117">
@@ -4569,10 +4569,10 @@
         <v>2055</v>
       </c>
       <c r="G117">
-        <v>8.19393e-006</v>
+        <v>4.68594e-006</v>
       </c>
       <c r="H117">
-        <v>0.0001507705481496783</v>
+        <v>8.976651448899421e-005</v>
       </c>
     </row>
     <row r="118">
@@ -4605,10 +4605,10 @@
         <v>2060</v>
       </c>
       <c r="G118">
-        <v>1.4303e-006</v>
+        <v>7.50735e-007</v>
       </c>
       <c r="H118">
-        <v>2.451230134556256e-005</v>
+        <v>1.347354092832534e-005</v>
       </c>
     </row>
     <row r="119">
@@ -4641,10 +4641,10 @@
         <v>2065</v>
       </c>
       <c r="G119">
-        <v>1.91715e-007</v>
+        <v>7.50482e-008</v>
       </c>
       <c r="H119">
-        <v>2.986091284449531e-006</v>
+        <v>1.224217896091226e-006</v>
       </c>
     </row>
     <row r="120">
@@ -4680,7 +4680,7 @@
         <v>0.016</v>
       </c>
       <c r="H120">
-        <v>3.128077474257647</v>
+        <v>3.672969570912294</v>
       </c>
     </row>
     <row r="121">
@@ -4716,7 +4716,7 @@
         <v>0.012879</v>
       </c>
       <c r="H121">
-        <v>1.242541931571485</v>
+        <v>1.270499342531573</v>
       </c>
     </row>
     <row r="122">
@@ -4752,7 +4752,7 @@
         <v>0.0156788</v>
       </c>
       <c r="H122">
-        <v>1.04057797129841</v>
+        <v>0.9648232456286522</v>
       </c>
     </row>
     <row r="123">
@@ -4788,7 +4788,7 @@
         <v>0.0167627</v>
       </c>
       <c r="H123">
-        <v>0.7437956033981746</v>
+        <v>0.6889958770517131</v>
       </c>
     </row>
     <row r="124">
@@ -4824,7 +4824,7 @@
         <v>0.0178465</v>
       </c>
       <c r="H124">
-        <v>0.6130590258839352</v>
+        <v>0.5690376182854386</v>
       </c>
     </row>
     <row r="125">
@@ -4860,7 +4860,7 @@
         <v>0.0197557</v>
       </c>
       <c r="H125">
-        <v>0.5023573270069452</v>
+        <v>0.4760901692508669</v>
       </c>
     </row>
     <row r="126">
@@ -4896,7 +4896,7 @@
         <v>0.0216648</v>
       </c>
       <c r="H126">
-        <v>0.4352682481748744</v>
+        <v>0.442878861394589</v>
       </c>
     </row>
     <row r="127">
@@ -4932,7 +4932,7 @@
         <v>0.0235739</v>
       </c>
       <c r="H127">
-        <v>0.4337661933926336</v>
+        <v>0.4515949491269843</v>
       </c>
     </row>
     <row r="128">
@@ -4968,7 +4968,7 @@
         <v>0.025483</v>
       </c>
       <c r="H128">
-        <v>0.4367244460525559</v>
+        <v>0.457346791446402</v>
       </c>
     </row>
     <row r="129">
@@ -5004,7 +5004,7 @@
         <v>0.0273921</v>
       </c>
       <c r="H129">
-        <v>0.4266505545876431</v>
+        <v>0.4468314900493347</v>
       </c>
     </row>
     <row r="130">
@@ -5040,7 +5040,7 @@
         <v>0.0293013</v>
       </c>
       <c r="H130">
-        <v>0.4523445381495667</v>
+        <v>0.4819464193401674</v>
       </c>
     </row>
     <row r="131">
@@ -5073,10 +5073,10 @@
         <v>2020</v>
       </c>
       <c r="G131">
-        <v>0.01272572</v>
+        <v>0.012242852</v>
       </c>
       <c r="H131">
-        <v>2.487939879731877</v>
+        <v>2.81047642857392</v>
       </c>
     </row>
     <row r="132">
@@ -5109,10 +5109,10 @@
         <v>2025</v>
       </c>
       <c r="G132">
-        <v>0.30119545</v>
+        <v>0.240759749</v>
       </c>
       <c r="H132">
-        <v>29.05877600928199</v>
+        <v>23.75068738353651</v>
       </c>
     </row>
     <row r="133">
@@ -5145,10 +5145,10 @@
         <v>2030</v>
       </c>
       <c r="G133">
-        <v>0.26610124</v>
+        <v>0.209449928</v>
       </c>
       <c r="H133">
-        <v>17.66073222945578</v>
+        <v>12.88887920820774</v>
       </c>
     </row>
     <row r="134">
@@ -5181,10 +5181,10 @@
         <v>2035</v>
       </c>
       <c r="G134">
-        <v>0.27886375</v>
+        <v>0.278633493</v>
       </c>
       <c r="H134">
-        <v>12.3737602651797</v>
+        <v>11.45264950667359</v>
       </c>
     </row>
     <row r="135">
@@ -5217,10 +5217,10 @@
         <v>2040</v>
       </c>
       <c r="G135">
-        <v>0.26703475</v>
+        <v>0.287237015</v>
       </c>
       <c r="H135">
-        <v>9.173118746653973</v>
+        <v>9.158583862326999</v>
       </c>
     </row>
     <row r="136">
@@ -5253,10 +5253,10 @@
         <v>2045</v>
       </c>
       <c r="G136">
-        <v>0.442034217</v>
+        <v>0.495742927</v>
       </c>
       <c r="H136">
-        <v>11.24025611331049</v>
+        <v>11.94684744252799</v>
       </c>
     </row>
     <row r="137">
@@ -5289,10 +5289,10 @@
         <v>2050</v>
       </c>
       <c r="G137">
-        <v>0.514779408</v>
+        <v>0.5430060449999999</v>
       </c>
       <c r="H137">
-        <v>10.34245093961905</v>
+        <v>11.10030551585886</v>
       </c>
     </row>
     <row r="138">
@@ -5325,10 +5325,10 @@
         <v>2055</v>
       </c>
       <c r="G138">
-        <v>0.46174616</v>
+        <v>0.5024823900000001</v>
       </c>
       <c r="H138">
-        <v>8.496255356002441</v>
+        <v>9.625836596797962</v>
       </c>
     </row>
     <row r="139">
@@ -5361,10 +5361,10 @@
         <v>2060</v>
       </c>
       <c r="G139">
-        <v>0.51947561</v>
+        <v>0.57910668</v>
       </c>
       <c r="H139">
-        <v>8.902707609585354</v>
+        <v>10.39330463458691</v>
       </c>
     </row>
     <row r="140">
@@ -5397,10 +5397,10 @@
         <v>2065</v>
       </c>
       <c r="G140">
-        <v>0.6177969</v>
+        <v>0.71114978</v>
       </c>
       <c r="H140">
-        <v>9.62260615314367</v>
+        <v>11.60057519670476</v>
       </c>
     </row>
     <row r="141">
@@ -5433,10 +5433,10 @@
         <v>2070</v>
       </c>
       <c r="G141">
-        <v>0.5808376</v>
+        <v>0.64641813</v>
       </c>
       <c r="H141">
-        <v>8.96679382525358</v>
+        <v>10.63225533167699</v>
       </c>
     </row>
     <row r="142">
@@ -5469,10 +5469,10 @@
         <v>2020</v>
       </c>
       <c r="G142">
-        <v>0.0133319813</v>
+        <v>0.0106937818</v>
       </c>
       <c r="H142">
-        <v>2.606466899484636</v>
+        <v>2.454870946835981</v>
       </c>
     </row>
     <row r="143">
@@ -5505,10 +5505,10 @@
         <v>2025</v>
       </c>
       <c r="G143">
-        <v>0.00882654812</v>
+        <v>0.0065522151</v>
       </c>
       <c r="H143">
-        <v>0.851568922286937</v>
+        <v>0.6463688932894981</v>
       </c>
     </row>
     <row r="144">
@@ -5541,10 +5541,10 @@
         <v>2030</v>
       </c>
       <c r="G144">
-        <v>0.007911148769999999</v>
+        <v>0.00584344502</v>
       </c>
       <c r="H144">
-        <v>0.5250508417561617</v>
+        <v>0.3595869320259831</v>
       </c>
     </row>
     <row r="145">
@@ -5577,10 +5577,10 @@
         <v>2035</v>
       </c>
       <c r="G145">
-        <v>0.00598023332</v>
+        <v>0.00455643651</v>
       </c>
       <c r="H145">
-        <v>0.2653552978166566</v>
+        <v>0.1872828344740344</v>
       </c>
     </row>
     <row r="146">
@@ -5613,10 +5613,10 @@
         <v>2040</v>
       </c>
       <c r="G146">
-        <v>0.00516464974</v>
+        <v>0.00398345153</v>
       </c>
       <c r="H146">
-        <v>0.1774149070482234</v>
+        <v>0.1270127908097771</v>
       </c>
     </row>
     <row r="147">
@@ -5649,10 +5649,10 @@
         <v>2045</v>
       </c>
       <c r="G147">
-        <v>0.001532325678</v>
+        <v>0.001068449454</v>
       </c>
       <c r="H147">
-        <v>0.03896470546243287</v>
+        <v>0.02574843115611476</v>
       </c>
     </row>
     <row r="148">
@@ -5685,10 +5685,10 @@
         <v>2050</v>
       </c>
       <c r="G148">
-        <v>0.000202698995147</v>
+        <v>9.743587213000001e-005</v>
       </c>
       <c r="H148">
-        <v>0.004072432541470128</v>
+        <v>0.001991815669100254</v>
       </c>
     </row>
     <row r="149">
@@ -5721,10 +5721,10 @@
         <v>2055</v>
       </c>
       <c r="G149">
-        <v>3.42606e-006</v>
+        <v>1.39938e-006</v>
       </c>
       <c r="H149">
-        <v>6.304043898272098e-005</v>
+        <v>2.68073140171681e-005</v>
       </c>
     </row>
     <row r="150">
@@ -5757,10 +5757,10 @@
         <v>2060</v>
       </c>
       <c r="G150">
-        <v>3.54973e-007</v>
+        <v>1.24096e-007</v>
       </c>
       <c r="H150">
-        <v>6.083482587945451e-006</v>
+        <v>2.227167422647753e-006</v>
       </c>
     </row>
     <row r="151">
@@ -5793,10 +5793,10 @@
         <v>2065</v>
       </c>
       <c r="G151">
-        <v>3.56789e-008</v>
+        <v>8.29545e-009</v>
       </c>
       <c r="H151">
-        <v>5.557230906749414e-007</v>
+        <v>1.353188796817241e-007</v>
       </c>
     </row>
     <row r="152">
@@ -5829,10 +5829,10 @@
         <v>2020</v>
       </c>
       <c r="G152">
-        <v>0.016442516775</v>
+        <v>0.013461402901</v>
       </c>
       <c r="H152">
-        <v>3.214591646498812</v>
+        <v>3.090207702322717</v>
       </c>
     </row>
     <row r="153">
@@ -5865,10 +5865,10 @@
         <v>2025</v>
       </c>
       <c r="G153">
-        <v>0.159603465624</v>
+        <v>0.21696128611</v>
       </c>
       <c r="H153">
-        <v>15.39824508594985</v>
+        <v>21.40299490314152</v>
       </c>
     </row>
     <row r="154">
@@ -5901,10 +5901,10 @@
         <v>2030</v>
       </c>
       <c r="G154">
-        <v>0.470748918467</v>
+        <v>0.6022637667399999</v>
       </c>
       <c r="H154">
-        <v>31.24288558877664</v>
+        <v>37.06138748824044</v>
       </c>
     </row>
     <row r="155">
@@ -5937,10 +5937,10 @@
         <v>2035</v>
       </c>
       <c r="G155">
-        <v>1.046716592567</v>
+        <v>1.17695894485</v>
       </c>
       <c r="H155">
-        <v>46.44497602147942</v>
+        <v>48.37644654266822</v>
       </c>
     </row>
     <row r="156">
@@ -5973,10 +5973,10 @@
         <v>2040</v>
       </c>
       <c r="G156">
-        <v>1.585100370352</v>
+        <v>1.724615945289</v>
       </c>
       <c r="H156">
-        <v>54.45101778927308</v>
+        <v>54.98956938135449</v>
       </c>
     </row>
     <row r="157">
@@ -6009,10 +6009,10 @@
         <v>2045</v>
       </c>
       <c r="G157">
-        <v>2.394818616592</v>
+        <v>2.513707463649</v>
       </c>
       <c r="H157">
-        <v>60.89658573969171</v>
+        <v>60.57752505939145</v>
       </c>
     </row>
     <row r="158">
@@ -6045,10 +6045,10 @@
         <v>2050</v>
       </c>
       <c r="G158">
-        <v>3.229212328423</v>
+        <v>3.14618745284</v>
       </c>
       <c r="H158">
-        <v>64.87821688533408</v>
+        <v>64.31538333368974</v>
       </c>
     </row>
     <row r="159">
@@ -6081,10 +6081,10 @@
         <v>2055</v>
       </c>
       <c r="G159">
-        <v>3.69845171588</v>
+        <v>3.45608645042</v>
       </c>
       <c r="H159">
-        <v>68.0525208914826</v>
+        <v>66.20674494911233</v>
       </c>
     </row>
     <row r="160">
@@ -6117,10 +6117,10 @@
         <v>2060</v>
       </c>
       <c r="G160">
-        <v>4.03807889355</v>
+        <v>3.71887776618</v>
       </c>
       <c r="H160">
-        <v>69.20408774093089</v>
+        <v>66.74319405657833</v>
       </c>
     </row>
     <row r="161">
@@ -6153,10 +6153,10 @@
         <v>2065</v>
       </c>
       <c r="G161">
-        <v>4.51822919208</v>
+        <v>4.13640175945</v>
       </c>
       <c r="H161">
-        <v>70.37448718992012</v>
+        <v>67.47473036451143</v>
       </c>
     </row>
     <row r="162">
@@ -6189,10 +6189,10 @@
         <v>2070</v>
       </c>
       <c r="G162">
-        <v>4.62383935351</v>
+        <v>4.164472287</v>
       </c>
       <c r="H162">
-        <v>71.38142255945205</v>
+        <v>68.49704645053319</v>
       </c>
     </row>
     <row r="163">
@@ -6225,10 +6225,10 @@
         <v>2020</v>
       </c>
       <c r="G163">
-        <v>0.051102151603</v>
+        <v>0.041371740188</v>
       </c>
       <c r="H163">
-        <v>9.990718082215226</v>
+        <v>9.497321425388329</v>
       </c>
     </row>
     <row r="164">
@@ -6261,10 +6261,10 @@
         <v>2025</v>
       </c>
       <c r="G164">
-        <v>0.129362724743</v>
+        <v>0.152616959388</v>
       </c>
       <c r="H164">
-        <v>12.48067473216225</v>
+        <v>15.05549705424504</v>
       </c>
     </row>
     <row r="165">
@@ -6297,10 +6297,10 @@
         <v>2030</v>
       </c>
       <c r="G165">
-        <v>0.263997330343</v>
+        <v>0.319340105988</v>
       </c>
       <c r="H165">
-        <v>17.52109896398417</v>
+        <v>19.65116957412174</v>
       </c>
     </row>
     <row r="166">
@@ -6333,10 +6333,10 @@
         <v>2035</v>
       </c>
       <c r="G166">
-        <v>0.469037789743</v>
+        <v>0.523927919588</v>
       </c>
       <c r="H166">
-        <v>20.81217499796816</v>
+        <v>21.53496611335963</v>
       </c>
     </row>
     <row r="167">
@@ -6369,10 +6369,10 @@
         <v>2040</v>
       </c>
       <c r="G167">
-        <v>0.63251277714</v>
+        <v>0.6992653444</v>
       </c>
       <c r="H167">
-        <v>21.72793920447096</v>
+        <v>22.29615253001558</v>
       </c>
     </row>
     <row r="168">
@@ -6405,10 +6405,10 @@
         <v>2045</v>
       </c>
       <c r="G168">
-        <v>0.91541467954</v>
+        <v>0.9744320866</v>
       </c>
       <c r="H168">
-        <v>23.27759945315194</v>
+        <v>23.48271825512988</v>
       </c>
     </row>
     <row r="169">
@@ -6441,10 +6441,10 @@
         <v>2050</v>
       </c>
       <c r="G169">
-        <v>1.202647144</v>
+        <v>1.1778187446</v>
       </c>
       <c r="H169">
-        <v>24.16242548010578</v>
+        <v>24.07735241209945</v>
       </c>
     </row>
     <row r="170">
@@ -6477,10 +6477,10 @@
         <v>2055</v>
       </c>
       <c r="G170">
-        <v>1.250912471</v>
+        <v>1.2379893858</v>
       </c>
       <c r="H170">
-        <v>23.01713084441026</v>
+        <v>23.71562421576818</v>
       </c>
     </row>
     <row r="171">
@@ -6513,10 +6513,10 @@
         <v>2060</v>
       </c>
       <c r="G171">
-        <v>1.2519896616</v>
+        <v>1.2484519302</v>
       </c>
       <c r="H171">
-        <v>21.45644121280018</v>
+        <v>22.40613289455862</v>
       </c>
     </row>
     <row r="172">
@@ -6549,10 +6549,10 @@
         <v>2065</v>
       </c>
       <c r="G172">
-        <v>1.2568474202</v>
+        <v>1.2553538296</v>
       </c>
       <c r="H172">
-        <v>19.57625187044362</v>
+        <v>20.47786121616475</v>
       </c>
     </row>
     <row r="173">
@@ -6585,10 +6585,10 @@
         <v>2070</v>
       </c>
       <c r="G173">
-        <v>1.2436726362</v>
+        <v>1.239592015</v>
       </c>
       <c r="H173">
-        <v>19.19943907714481</v>
+        <v>20.38875179844966</v>
       </c>
     </row>
   </sheetData>
